--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeff-nonadmin\CodeRepositories\eps-us\InputData\io-model\HSR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/io-model/hsr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E5882C-1F7E-4983-B15B-A6C39C4FBEEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A613612-D15C-BF40-820A-3920B5C694DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3090" yWindow="1890" windowWidth="24090" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="3100" yWindow="1460" windowWidth="24100" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -119,7 +119,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -175,7 +175,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -185,7 +185,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -501,18 +502,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F53E62A-DC55-435E-84B0-0337EC6CDF03}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="8">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -520,62 +524,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -595,42 +599,42 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -638,12 +642,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -651,7 +655,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>21551</v>
       </c>
@@ -659,7 +663,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
         <v>21582</v>
       </c>
@@ -667,7 +671,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
         <v>21610</v>
       </c>
@@ -675,7 +679,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>21641</v>
       </c>
@@ -683,7 +687,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>21671</v>
       </c>
@@ -691,7 +695,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
         <v>21702</v>
       </c>
@@ -699,7 +703,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
         <v>21732</v>
       </c>
@@ -707,7 +711,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
         <v>21763</v>
       </c>
@@ -715,7 +719,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>21794</v>
       </c>
@@ -723,7 +727,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>21824</v>
       </c>
@@ -731,7 +735,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>21855</v>
       </c>
@@ -739,7 +743,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="5">
         <v>21885</v>
       </c>
@@ -747,7 +751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
         <v>21916</v>
       </c>
@@ -755,7 +759,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
         <v>21947</v>
       </c>
@@ -763,7 +767,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
         <v>21976</v>
       </c>
@@ -771,7 +775,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>22007</v>
       </c>
@@ -779,7 +783,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>22037</v>
       </c>
@@ -787,7 +791,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>22068</v>
       </c>
@@ -795,7 +799,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>22098</v>
       </c>
@@ -803,7 +807,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>22129</v>
       </c>
@@ -811,7 +815,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>22160</v>
       </c>
@@ -819,7 +823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>22190</v>
       </c>
@@ -827,7 +831,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>22221</v>
       </c>
@@ -835,7 +839,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>22251</v>
       </c>
@@ -843,7 +847,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
         <v>22282</v>
       </c>
@@ -851,7 +855,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
         <v>22313</v>
       </c>
@@ -859,7 +863,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
         <v>22341</v>
       </c>
@@ -867,7 +871,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
         <v>22372</v>
       </c>
@@ -875,7 +879,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
         <v>22402</v>
       </c>
@@ -883,7 +887,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5">
         <v>22433</v>
       </c>
@@ -891,7 +895,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
         <v>22463</v>
       </c>
@@ -899,7 +903,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="5">
         <v>22494</v>
       </c>
@@ -907,7 +911,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5">
         <v>22525</v>
       </c>
@@ -915,7 +919,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
         <v>22555</v>
       </c>
@@ -923,7 +927,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="5">
         <v>22586</v>
       </c>
@@ -931,7 +935,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="5">
         <v>22616</v>
       </c>
@@ -939,7 +943,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="5">
         <v>22647</v>
       </c>
@@ -947,7 +951,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
         <v>22678</v>
       </c>
@@ -955,7 +959,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="5">
         <v>22706</v>
       </c>
@@ -963,7 +967,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
         <v>22737</v>
       </c>
@@ -971,7 +975,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="5">
         <v>22767</v>
       </c>
@@ -979,7 +983,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
         <v>22798</v>
       </c>
@@ -987,7 +991,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="5">
         <v>22828</v>
       </c>
@@ -995,7 +999,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
         <v>22859</v>
       </c>
@@ -1003,7 +1007,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="5">
         <v>22890</v>
       </c>
@@ -1011,7 +1015,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
         <v>22920</v>
       </c>
@@ -1019,7 +1023,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="5">
         <v>22951</v>
       </c>
@@ -1027,7 +1031,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
         <v>22981</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="5">
         <v>23012</v>
       </c>
@@ -1043,7 +1047,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
         <v>23043</v>
       </c>
@@ -1051,7 +1055,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="5">
         <v>23071</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
         <v>23102</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="5">
         <v>23132</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
         <v>23163</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="5">
         <v>23193</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="5">
         <v>23224</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="5">
         <v>23255</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
         <v>23285</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="5">
         <v>23316</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="5">
         <v>23346</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="5">
         <v>23377</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="5">
         <v>23408</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="5">
         <v>23437</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="5">
         <v>23468</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="5">
         <v>23498</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="5">
         <v>23529</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="5">
         <v>23559</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="5">
         <v>23590</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="5">
         <v>23621</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="5">
         <v>23651</v>
       </c>
@@ -1211,7 +1215,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" s="5">
         <v>23682</v>
       </c>
@@ -1219,7 +1223,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" s="5">
         <v>23712</v>
       </c>
@@ -1227,7 +1231,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" s="5">
         <v>23743</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" s="5">
         <v>23774</v>
       </c>
@@ -1243,7 +1247,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" s="5">
         <v>23802</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" s="5">
         <v>23833</v>
       </c>
@@ -1259,7 +1263,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" s="5">
         <v>23863</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" s="5">
         <v>23894</v>
       </c>
@@ -1275,7 +1279,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" s="5">
         <v>23924</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" s="5">
         <v>23955</v>
       </c>
@@ -1291,7 +1295,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" s="5">
         <v>23986</v>
       </c>
@@ -1299,7 +1303,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" s="5">
         <v>24016</v>
       </c>
@@ -1307,7 +1311,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" s="5">
         <v>24047</v>
       </c>
@@ -1315,7 +1319,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="5">
         <v>24077</v>
       </c>
@@ -1323,7 +1327,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" s="5">
         <v>24108</v>
       </c>
@@ -1331,7 +1335,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" s="5">
         <v>24139</v>
       </c>
@@ -1339,7 +1343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" s="5">
         <v>24167</v>
       </c>
@@ -1347,7 +1351,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" s="5">
         <v>24198</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" s="5">
         <v>24228</v>
       </c>
@@ -1363,7 +1367,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" s="5">
         <v>24259</v>
       </c>
@@ -1371,7 +1375,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" s="5">
         <v>24289</v>
       </c>
@@ -1379,7 +1383,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" s="5">
         <v>24320</v>
       </c>
@@ -1387,7 +1391,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" s="5">
         <v>24351</v>
       </c>
@@ -1395,7 +1399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="5">
         <v>24381</v>
       </c>
@@ -1403,7 +1407,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" s="5">
         <v>24412</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" s="5">
         <v>24442</v>
       </c>
@@ -1419,7 +1423,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" s="5">
         <v>24473</v>
       </c>
@@ -1427,7 +1431,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" s="5">
         <v>24504</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="5">
         <v>24532</v>
       </c>
@@ -1443,7 +1447,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" s="5">
         <v>24563</v>
       </c>
@@ -1451,7 +1455,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" s="5">
         <v>24593</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" s="5">
         <v>24624</v>
       </c>
@@ -1467,7 +1471,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" s="5">
         <v>24654</v>
       </c>
@@ -1475,7 +1479,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" s="5">
         <v>24685</v>
       </c>
@@ -1483,7 +1487,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" s="5">
         <v>24716</v>
       </c>
@@ -1491,7 +1495,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" s="5">
         <v>24746</v>
       </c>
@@ -1499,7 +1503,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" s="5">
         <v>24777</v>
       </c>
@@ -1507,7 +1511,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" s="5">
         <v>24807</v>
       </c>
@@ -1515,7 +1519,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" s="5">
         <v>24838</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" s="5">
         <v>24869</v>
       </c>
@@ -1531,7 +1535,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" s="5">
         <v>24898</v>
       </c>
@@ -1539,7 +1543,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" s="5">
         <v>24929</v>
       </c>
@@ -1547,7 +1551,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" s="5">
         <v>24959</v>
       </c>
@@ -1555,7 +1559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" s="5">
         <v>24990</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" s="5">
         <v>25020</v>
       </c>
@@ -1571,7 +1575,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" s="5">
         <v>25051</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" s="5">
         <v>25082</v>
       </c>
@@ -1587,7 +1591,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" s="5">
         <v>25112</v>
       </c>
@@ -1595,7 +1599,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" s="5">
         <v>25143</v>
       </c>
@@ -1603,7 +1607,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" s="5">
         <v>25173</v>
       </c>
@@ -1611,7 +1615,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" s="5">
         <v>25204</v>
       </c>
@@ -1619,7 +1623,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" s="5">
         <v>25235</v>
       </c>
@@ -1627,7 +1631,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" s="5">
         <v>25263</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" s="5">
         <v>25294</v>
       </c>
@@ -1643,7 +1647,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" s="5">
         <v>25324</v>
       </c>
@@ -1651,7 +1655,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" s="5">
         <v>25355</v>
       </c>
@@ -1659,7 +1663,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" s="5">
         <v>25385</v>
       </c>
@@ -1667,7 +1671,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" s="5">
         <v>25416</v>
       </c>
@@ -1675,7 +1679,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" s="5">
         <v>25447</v>
       </c>
@@ -1683,7 +1687,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" s="5">
         <v>25477</v>
       </c>
@@ -1691,7 +1695,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" s="5">
         <v>25508</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" s="5">
         <v>25538</v>
       </c>
@@ -1707,7 +1711,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" s="5">
         <v>25569</v>
       </c>
@@ -1715,7 +1719,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" s="5">
         <v>25600</v>
       </c>
@@ -1723,7 +1727,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" s="5">
         <v>25628</v>
       </c>
@@ -1731,7 +1735,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" s="5">
         <v>25659</v>
       </c>
@@ -1739,7 +1743,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" s="5">
         <v>25689</v>
       </c>
@@ -1747,7 +1751,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" s="5">
         <v>25720</v>
       </c>
@@ -1755,7 +1759,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" s="5">
         <v>25750</v>
       </c>
@@ -1763,7 +1767,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" s="5">
         <v>25781</v>
       </c>
@@ -1771,7 +1775,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" s="5">
         <v>25812</v>
       </c>
@@ -1779,7 +1783,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" s="5">
         <v>25842</v>
       </c>
@@ -1787,7 +1791,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" s="5">
         <v>25873</v>
       </c>
@@ -1795,7 +1799,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" s="5">
         <v>25903</v>
       </c>
@@ -1803,7 +1807,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" s="5">
         <v>25934</v>
       </c>
@@ -1811,7 +1815,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" s="5">
         <v>25965</v>
       </c>
@@ -1819,7 +1823,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" s="5">
         <v>25993</v>
       </c>
@@ -1827,7 +1831,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" s="5">
         <v>26024</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" s="5">
         <v>26054</v>
       </c>
@@ -1843,7 +1847,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" s="5">
         <v>26085</v>
       </c>
@@ -1851,7 +1855,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" s="5">
         <v>26115</v>
       </c>
@@ -1859,7 +1863,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" s="5">
         <v>26146</v>
       </c>
@@ -1867,7 +1871,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" s="5">
         <v>26177</v>
       </c>
@@ -1875,7 +1879,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" s="5">
         <v>26207</v>
       </c>
@@ -1883,7 +1887,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" s="5">
         <v>26238</v>
       </c>
@@ -1891,7 +1895,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" s="5">
         <v>26268</v>
       </c>
@@ -1899,7 +1903,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" s="5">
         <v>26299</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" s="5">
         <v>26330</v>
       </c>
@@ -1915,7 +1919,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" s="5">
         <v>26359</v>
       </c>
@@ -1923,7 +1927,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" s="5">
         <v>26390</v>
       </c>
@@ -1931,7 +1935,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" s="5">
         <v>26420</v>
       </c>
@@ -1939,7 +1943,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" s="5">
         <v>26451</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" s="5">
         <v>26481</v>
       </c>
@@ -1955,7 +1959,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" s="5">
         <v>26512</v>
       </c>
@@ -1963,7 +1967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" s="5">
         <v>26543</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" s="5">
         <v>26573</v>
       </c>
@@ -1979,7 +1983,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" s="5">
         <v>26604</v>
       </c>
@@ -1987,7 +1991,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" s="5">
         <v>26634</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" s="5">
         <v>26665</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" s="5">
         <v>26696</v>
       </c>
@@ -2011,7 +2015,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" s="5">
         <v>26724</v>
       </c>
@@ -2019,7 +2023,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" s="5">
         <v>26755</v>
       </c>
@@ -2027,7 +2031,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" s="5">
         <v>26785</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" s="5">
         <v>26816</v>
       </c>
@@ -2043,7 +2047,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" s="5">
         <v>26846</v>
       </c>
@@ -2051,7 +2055,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" s="5">
         <v>26877</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" s="5">
         <v>26908</v>
       </c>
@@ -2067,7 +2071,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" s="5">
         <v>26938</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" s="5">
         <v>26969</v>
       </c>
@@ -2083,7 +2087,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" s="5">
         <v>26999</v>
       </c>
@@ -2091,7 +2095,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" s="5">
         <v>27030</v>
       </c>
@@ -2099,7 +2103,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" s="5">
         <v>27061</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" s="5">
         <v>27089</v>
       </c>
@@ -2115,7 +2119,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" s="5">
         <v>27120</v>
       </c>
@@ -2123,7 +2127,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" s="5">
         <v>27150</v>
       </c>
@@ -2131,7 +2135,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" s="5">
         <v>27181</v>
       </c>
@@ -2139,7 +2143,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" s="5">
         <v>27211</v>
       </c>
@@ -2147,7 +2151,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" s="5">
         <v>27242</v>
       </c>
@@ -2155,7 +2159,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" s="5">
         <v>27273</v>
       </c>
@@ -2163,7 +2167,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" s="5">
         <v>27303</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" s="5">
         <v>27334</v>
       </c>
@@ -2179,7 +2183,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" s="5">
         <v>27364</v>
       </c>
@@ -2187,7 +2191,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" s="5">
         <v>27395</v>
       </c>
@@ -2195,7 +2199,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" s="5">
         <v>27426</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" s="5">
         <v>27454</v>
       </c>
@@ -2211,7 +2215,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" s="5">
         <v>27485</v>
       </c>
@@ -2219,7 +2223,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" s="5">
         <v>27515</v>
       </c>
@@ -2227,7 +2231,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" s="5">
         <v>27546</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" s="5">
         <v>27576</v>
       </c>
@@ -2243,7 +2247,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" s="5">
         <v>27607</v>
       </c>
@@ -2251,7 +2255,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" s="5">
         <v>27638</v>
       </c>
@@ -2259,7 +2263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" s="5">
         <v>27668</v>
       </c>
@@ -2267,7 +2271,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" s="5">
         <v>27699</v>
       </c>
@@ -2275,7 +2279,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" s="5">
         <v>27729</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" s="5">
         <v>27760</v>
       </c>
@@ -2291,7 +2295,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" s="5">
         <v>27791</v>
       </c>
@@ -2299,7 +2303,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" s="5">
         <v>27820</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" s="5">
         <v>27851</v>
       </c>
@@ -2315,7 +2319,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" s="5">
         <v>27881</v>
       </c>
@@ -2323,7 +2327,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" s="5">
         <v>27912</v>
       </c>
@@ -2331,7 +2335,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" s="5">
         <v>27942</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" s="5">
         <v>27973</v>
       </c>
@@ -2347,7 +2351,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" s="5">
         <v>28004</v>
       </c>
@@ -2355,7 +2359,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" s="5">
         <v>28034</v>
       </c>
@@ -2363,7 +2367,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" s="5">
         <v>28065</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" s="5">
         <v>28095</v>
       </c>
@@ -2379,7 +2383,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" s="5">
         <v>28126</v>
       </c>
@@ -2387,7 +2391,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" s="5">
         <v>28157</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" s="5">
         <v>28185</v>
       </c>
@@ -2403,7 +2407,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" s="5">
         <v>28216</v>
       </c>
@@ -2411,7 +2415,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" s="5">
         <v>28246</v>
       </c>
@@ -2419,7 +2423,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" s="5">
         <v>28277</v>
       </c>
@@ -2427,7 +2431,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" s="5">
         <v>28307</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" s="5">
         <v>28338</v>
       </c>
@@ -2443,7 +2447,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" s="5">
         <v>28369</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" s="5">
         <v>28399</v>
       </c>
@@ -2459,7 +2463,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" s="5">
         <v>28430</v>
       </c>
@@ -2467,7 +2471,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" s="5">
         <v>28460</v>
       </c>
@@ -2475,7 +2479,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" s="5">
         <v>28491</v>
       </c>
@@ -2483,7 +2487,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>28522</v>
       </c>
@@ -2491,7 +2495,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>28550</v>
       </c>
@@ -2499,7 +2503,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>28581</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>28611</v>
       </c>
@@ -2515,7 +2519,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" s="5">
         <v>28642</v>
       </c>
@@ -2523,7 +2527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" s="5">
         <v>28672</v>
       </c>
@@ -2531,7 +2535,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" s="5">
         <v>28703</v>
       </c>
@@ -2539,7 +2543,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" s="5">
         <v>28734</v>
       </c>
@@ -2547,7 +2551,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" s="5">
         <v>28764</v>
       </c>
@@ -2555,7 +2559,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" s="5">
         <v>28795</v>
       </c>
@@ -2563,7 +2567,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" s="5">
         <v>28825</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" s="5">
         <v>28856</v>
       </c>
@@ -2579,7 +2583,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" s="5">
         <v>28887</v>
       </c>
@@ -2587,7 +2591,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" s="5">
         <v>28915</v>
       </c>
@@ -2595,7 +2599,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" s="5">
         <v>28946</v>
       </c>
@@ -2603,7 +2607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" s="5">
         <v>28976</v>
       </c>
@@ -2611,7 +2615,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" s="5">
         <v>29007</v>
       </c>
@@ -2619,7 +2623,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" s="5">
         <v>29037</v>
       </c>
@@ -2627,7 +2631,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" s="5">
         <v>29068</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" s="5">
         <v>29099</v>
       </c>
@@ -2643,7 +2647,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" s="5">
         <v>29129</v>
       </c>
@@ -2651,7 +2655,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" s="5">
         <v>29160</v>
       </c>
@@ -2659,7 +2663,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" s="5">
         <v>29190</v>
       </c>
@@ -2667,7 +2671,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" s="5">
         <v>29221</v>
       </c>
@@ -2675,7 +2679,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" s="5">
         <v>29252</v>
       </c>
@@ -2683,7 +2687,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" s="5">
         <v>29281</v>
       </c>
@@ -2691,7 +2695,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" s="5">
         <v>29312</v>
       </c>
@@ -2699,7 +2703,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" s="5">
         <v>29342</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" s="5">
         <v>29373</v>
       </c>
@@ -2715,7 +2719,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" s="5">
         <v>29403</v>
       </c>
@@ -2723,7 +2727,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" s="5">
         <v>29434</v>
       </c>
@@ -2731,7 +2735,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" s="5">
         <v>29465</v>
       </c>
@@ -2739,7 +2743,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" s="5">
         <v>29495</v>
       </c>
@@ -2747,7 +2751,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" s="5">
         <v>29526</v>
       </c>
@@ -2755,7 +2759,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" s="5">
         <v>29556</v>
       </c>
@@ -2763,7 +2767,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" s="5">
         <v>29587</v>
       </c>
@@ -2771,7 +2775,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" s="5">
         <v>29618</v>
       </c>
@@ -2779,7 +2783,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" s="5">
         <v>29646</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" s="5">
         <v>29677</v>
       </c>
@@ -2795,7 +2799,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" s="5">
         <v>29707</v>
       </c>
@@ -2803,7 +2807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" s="5">
         <v>29738</v>
       </c>
@@ -2811,7 +2815,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" s="5">
         <v>29768</v>
       </c>
@@ -2819,7 +2823,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" s="5">
         <v>29799</v>
       </c>
@@ -2827,7 +2831,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" s="5">
         <v>29830</v>
       </c>
@@ -2835,7 +2839,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" s="5">
         <v>29860</v>
       </c>
@@ -2843,7 +2847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" s="5">
         <v>29891</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" s="5">
         <v>29921</v>
       </c>
@@ -2859,7 +2863,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" s="5">
         <v>29952</v>
       </c>
@@ -2867,7 +2871,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" s="5">
         <v>29983</v>
       </c>
@@ -2875,7 +2879,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" s="5">
         <v>30011</v>
       </c>
@@ -2883,7 +2887,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" s="5">
         <v>30042</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" s="5">
         <v>30072</v>
       </c>
@@ -2899,7 +2903,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" s="5">
         <v>30103</v>
       </c>
@@ -2907,7 +2911,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" s="5">
         <v>30133</v>
       </c>
@@ -2915,7 +2919,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" s="5">
         <v>30164</v>
       </c>
@@ -2923,7 +2927,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" s="5">
         <v>30195</v>
       </c>
@@ -2931,7 +2935,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" s="5">
         <v>30225</v>
       </c>
@@ -2939,7 +2943,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" s="5">
         <v>30256</v>
       </c>
@@ -2947,7 +2951,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" s="5">
         <v>30286</v>
       </c>
@@ -2955,7 +2959,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" s="5">
         <v>30317</v>
       </c>
@@ -2963,7 +2967,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" s="5">
         <v>30348</v>
       </c>
@@ -2971,7 +2975,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" s="5">
         <v>30376</v>
       </c>
@@ -2979,7 +2983,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" s="5">
         <v>30407</v>
       </c>
@@ -2987,7 +2991,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" s="5">
         <v>30437</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" s="5">
         <v>30468</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" s="5">
         <v>30498</v>
       </c>
@@ -3011,7 +3015,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" s="5">
         <v>30529</v>
       </c>
@@ -3019,7 +3023,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" s="5">
         <v>30560</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" s="5">
         <v>30590</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" s="5">
         <v>30621</v>
       </c>
@@ -3043,7 +3047,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" s="5">
         <v>30651</v>
       </c>
@@ -3051,7 +3055,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" s="5">
         <v>30682</v>
       </c>
@@ -3059,7 +3063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" s="5">
         <v>30713</v>
       </c>
@@ -3067,7 +3071,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" s="5">
         <v>30742</v>
       </c>
@@ -3075,7 +3079,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" s="5">
         <v>30773</v>
       </c>
@@ -3083,7 +3087,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" s="5">
         <v>30803</v>
       </c>
@@ -3091,7 +3095,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" s="5">
         <v>30834</v>
       </c>
@@ -3099,7 +3103,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" s="5">
         <v>30864</v>
       </c>
@@ -3107,7 +3111,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" s="5">
         <v>30895</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" s="5">
         <v>30926</v>
       </c>
@@ -3123,7 +3127,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" s="5">
         <v>30956</v>
       </c>
@@ -3131,7 +3135,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" s="5">
         <v>30987</v>
       </c>
@@ -3139,7 +3143,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" s="5">
         <v>31017</v>
       </c>
@@ -3147,7 +3151,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" s="5">
         <v>31048</v>
       </c>
@@ -3155,7 +3159,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" s="5">
         <v>31079</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" s="5">
         <v>31107</v>
       </c>
@@ -3171,7 +3175,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" s="5">
         <v>31138</v>
       </c>
@@ -3179,7 +3183,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" s="5">
         <v>31168</v>
       </c>
@@ -3187,7 +3191,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" s="5">
         <v>31199</v>
       </c>
@@ -3195,7 +3199,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" s="5">
         <v>31229</v>
       </c>
@@ -3203,7 +3207,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" s="5">
         <v>31260</v>
       </c>
@@ -3211,7 +3215,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" s="5">
         <v>31291</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" s="5">
         <v>31321</v>
       </c>
@@ -3227,7 +3231,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" s="5">
         <v>31352</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" s="5">
         <v>31382</v>
       </c>
@@ -3243,7 +3247,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" s="5">
         <v>31413</v>
       </c>
@@ -3251,7 +3255,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" s="5">
         <v>31444</v>
       </c>
@@ -3259,7 +3263,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" s="5">
         <v>31472</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" s="5">
         <v>31503</v>
       </c>
@@ -3275,7 +3279,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" s="5">
         <v>31533</v>
       </c>
@@ -3283,7 +3287,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" s="5">
         <v>31564</v>
       </c>
@@ -3291,7 +3295,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" s="5">
         <v>31594</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" s="5">
         <v>31625</v>
       </c>
@@ -3307,7 +3311,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" s="5">
         <v>31656</v>
       </c>
@@ -3315,7 +3319,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" s="5">
         <v>31686</v>
       </c>
@@ -3323,7 +3327,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" s="5">
         <v>31717</v>
       </c>
@@ -3331,7 +3335,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" s="5">
         <v>31747</v>
       </c>
@@ -3339,7 +3343,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" s="5">
         <v>31778</v>
       </c>
@@ -3347,7 +3351,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" s="5">
         <v>31809</v>
       </c>
@@ -3355,7 +3359,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" s="5">
         <v>31837</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" s="5">
         <v>31868</v>
       </c>
@@ -3371,7 +3375,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" s="5">
         <v>31898</v>
       </c>
@@ -3379,7 +3383,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" s="5">
         <v>31929</v>
       </c>
@@ -3387,7 +3391,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" s="5">
         <v>31959</v>
       </c>
@@ -3395,7 +3399,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" s="5">
         <v>31990</v>
       </c>
@@ -3403,7 +3407,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" s="5">
         <v>32021</v>
       </c>
@@ -3411,7 +3415,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" s="5">
         <v>32051</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" s="5">
         <v>32082</v>
       </c>
@@ -3427,7 +3431,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" s="5">
         <v>32112</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" s="5">
         <v>32143</v>
       </c>
@@ -3443,7 +3447,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" s="5">
         <v>32174</v>
       </c>
@@ -3451,7 +3455,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" s="5">
         <v>32203</v>
       </c>
@@ -3459,7 +3463,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" s="5">
         <v>32234</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" s="5">
         <v>32264</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" s="5">
         <v>32295</v>
       </c>
@@ -3483,7 +3487,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" s="5">
         <v>32325</v>
       </c>
@@ -3491,7 +3495,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" s="5">
         <v>32356</v>
       </c>
@@ -3499,7 +3503,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" s="5">
         <v>32387</v>
       </c>
@@ -3507,7 +3511,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" s="5">
         <v>32417</v>
       </c>
@@ -3515,7 +3519,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" s="5">
         <v>32448</v>
       </c>
@@ -3523,7 +3527,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" s="5">
         <v>32478</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" s="5">
         <v>32509</v>
       </c>
@@ -3539,7 +3543,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" s="5">
         <v>32540</v>
       </c>
@@ -3547,7 +3551,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" s="5">
         <v>32568</v>
       </c>
@@ -3555,7 +3559,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" s="5">
         <v>32599</v>
       </c>
@@ -3563,7 +3567,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" s="5">
         <v>32629</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" s="5">
         <v>32660</v>
       </c>
@@ -3579,7 +3583,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" s="5">
         <v>32690</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" s="5">
         <v>32721</v>
       </c>
@@ -3595,7 +3599,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" s="5">
         <v>32752</v>
       </c>
@@ -3603,7 +3607,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" s="5">
         <v>32782</v>
       </c>
@@ -3611,7 +3615,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" s="5">
         <v>32813</v>
       </c>
@@ -3619,7 +3623,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" s="5">
         <v>32843</v>
       </c>
@@ -3627,7 +3631,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" s="5">
         <v>32874</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" s="5">
         <v>32905</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" s="5">
         <v>32933</v>
       </c>
@@ -3651,7 +3655,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" s="5">
         <v>32964</v>
       </c>
@@ -3659,7 +3663,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" s="5">
         <v>32994</v>
       </c>
@@ -3667,7 +3671,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" s="5">
         <v>33025</v>
       </c>
@@ -3675,7 +3679,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" s="5">
         <v>33055</v>
       </c>
@@ -3683,7 +3687,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" s="5">
         <v>33086</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" s="5">
         <v>33117</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" s="5">
         <v>33147</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" s="5">
         <v>33178</v>
       </c>
@@ -3715,7 +3719,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" s="5">
         <v>33208</v>
       </c>
@@ -3723,7 +3727,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" s="5">
         <v>33239</v>
       </c>
@@ -3731,7 +3735,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" s="5">
         <v>33270</v>
       </c>
@@ -3739,7 +3743,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" s="5">
         <v>33298</v>
       </c>
@@ -3747,7 +3751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" s="5">
         <v>33329</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" s="5">
         <v>33359</v>
       </c>
@@ -3763,7 +3767,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" s="5">
         <v>33390</v>
       </c>
@@ -3771,7 +3775,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" s="5">
         <v>33420</v>
       </c>
@@ -3779,7 +3783,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" s="5">
         <v>33451</v>
       </c>
@@ -3787,7 +3791,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" s="5">
         <v>33482</v>
       </c>
@@ -3795,7 +3799,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" s="5">
         <v>33512</v>
       </c>
@@ -3803,7 +3807,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" s="5">
         <v>33543</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" s="5">
         <v>33573</v>
       </c>
@@ -3819,7 +3823,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" s="5">
         <v>33604</v>
       </c>
@@ -3827,7 +3831,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" s="5">
         <v>33635</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" s="5">
         <v>33664</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" s="5">
         <v>33695</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" s="5">
         <v>33725</v>
       </c>
@@ -3859,7 +3863,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" s="5">
         <v>33756</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" s="5">
         <v>33786</v>
       </c>
@@ -3875,7 +3879,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" s="5">
         <v>33817</v>
       </c>
@@ -3883,7 +3887,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" s="5">
         <v>33848</v>
       </c>
@@ -3891,7 +3895,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" s="5">
         <v>33878</v>
       </c>
@@ -3899,7 +3903,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" s="5">
         <v>33909</v>
       </c>
@@ -3907,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" s="5">
         <v>33939</v>
       </c>
@@ -3915,7 +3919,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" s="5">
         <v>33970</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" s="5">
         <v>34001</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" s="5">
         <v>34029</v>
       </c>
@@ -3939,7 +3943,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" s="5">
         <v>34060</v>
       </c>
@@ -3947,7 +3951,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" s="5">
         <v>34090</v>
       </c>
@@ -3955,7 +3959,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" s="5">
         <v>34121</v>
       </c>
@@ -3963,7 +3967,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" s="5">
         <v>34151</v>
       </c>
@@ -3971,7 +3975,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" s="5">
         <v>34182</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" s="5">
         <v>34213</v>
       </c>
@@ -3987,7 +3991,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" s="5">
         <v>34243</v>
       </c>
@@ -3995,7 +3999,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" s="5">
         <v>34274</v>
       </c>
@@ -4003,7 +4007,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" s="5">
         <v>34304</v>
       </c>
@@ -4011,7 +4015,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" s="5">
         <v>34335</v>
       </c>
@@ -4019,7 +4023,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" s="5">
         <v>34366</v>
       </c>
@@ -4027,7 +4031,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" s="5">
         <v>34394</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" s="5">
         <v>34425</v>
       </c>
@@ -4043,7 +4047,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" s="5">
         <v>34455</v>
       </c>
@@ -4051,7 +4055,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" s="5">
         <v>34486</v>
       </c>
@@ -4059,7 +4063,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" s="5">
         <v>34516</v>
       </c>
@@ -4067,7 +4071,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" s="5">
         <v>34547</v>
       </c>
@@ -4075,7 +4079,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" s="5">
         <v>34578</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" s="5">
         <v>34608</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" s="5">
         <v>34639</v>
       </c>
@@ -4099,7 +4103,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" s="5">
         <v>34669</v>
       </c>
@@ -4107,7 +4111,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" s="5">
         <v>34700</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" s="5">
         <v>34731</v>
       </c>
@@ -4123,7 +4127,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" s="5">
         <v>34759</v>
       </c>
@@ -4131,7 +4135,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" s="5">
         <v>34790</v>
       </c>
@@ -4139,7 +4143,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" s="5">
         <v>34820</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" s="5">
         <v>34851</v>
       </c>
@@ -4155,7 +4159,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" s="5">
         <v>34881</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" s="5">
         <v>34912</v>
       </c>
@@ -4171,7 +4175,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" s="5">
         <v>34943</v>
       </c>
@@ -4179,7 +4183,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" s="5">
         <v>34973</v>
       </c>
@@ -4187,7 +4191,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" s="5">
         <v>35004</v>
       </c>
@@ -4195,7 +4199,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" s="5">
         <v>35034</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" s="5">
         <v>35065</v>
       </c>
@@ -4211,7 +4215,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" s="5">
         <v>35096</v>
       </c>
@@ -4219,7 +4223,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" s="5">
         <v>35125</v>
       </c>
@@ -4227,7 +4231,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" s="5">
         <v>35156</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" s="5">
         <v>35186</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" s="5">
         <v>35217</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" s="5">
         <v>35247</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" s="5">
         <v>35278</v>
       </c>
@@ -4267,7 +4271,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" s="5">
         <v>35309</v>
       </c>
@@ -4275,7 +4279,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" s="5">
         <v>35339</v>
       </c>
@@ -4283,7 +4287,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" s="5">
         <v>35370</v>
       </c>
@@ -4291,7 +4295,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" s="5">
         <v>35400</v>
       </c>
@@ -4299,7 +4303,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" s="5">
         <v>35431</v>
       </c>
@@ -4307,7 +4311,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" s="5">
         <v>35462</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" s="5">
         <v>35490</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" s="5">
         <v>35521</v>
       </c>
@@ -4331,7 +4335,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" s="5">
         <v>35551</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" s="5">
         <v>35582</v>
       </c>
@@ -4347,7 +4351,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" s="5">
         <v>35612</v>
       </c>
@@ -4355,7 +4359,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" s="5">
         <v>35643</v>
       </c>
@@ -4363,7 +4367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" s="5">
         <v>35674</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" s="5">
         <v>35704</v>
       </c>
@@ -4379,7 +4383,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" s="5">
         <v>35735</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" s="5">
         <v>35765</v>
       </c>
@@ -4395,7 +4399,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" s="5">
         <v>35796</v>
       </c>
@@ -4403,7 +4407,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" s="5">
         <v>35827</v>
       </c>
@@ -4411,7 +4415,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" s="5">
         <v>35855</v>
       </c>
@@ -4419,7 +4423,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" s="5">
         <v>35886</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" s="5">
         <v>35916</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" s="5">
         <v>35947</v>
       </c>
@@ -4443,7 +4447,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" s="5">
         <v>35977</v>
       </c>
@@ -4451,7 +4455,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" s="5">
         <v>36008</v>
       </c>
@@ -4459,7 +4463,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" s="5">
         <v>36039</v>
       </c>
@@ -4467,7 +4471,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" s="5">
         <v>36069</v>
       </c>
@@ -4475,7 +4479,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" s="5">
         <v>36100</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" s="5">
         <v>36130</v>
       </c>
@@ -4491,7 +4495,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" s="5">
         <v>36161</v>
       </c>
@@ -4499,7 +4503,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" s="5">
         <v>36192</v>
       </c>
@@ -4507,7 +4511,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" s="5">
         <v>36220</v>
       </c>
@@ -4515,7 +4519,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" s="5">
         <v>36251</v>
       </c>
@@ -4523,7 +4527,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" s="5">
         <v>36281</v>
       </c>
@@ -4531,7 +4535,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" s="5">
         <v>36312</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" s="5">
         <v>36342</v>
       </c>
@@ -4547,7 +4551,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" s="5">
         <v>36373</v>
       </c>
@@ -4555,7 +4559,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" s="5">
         <v>36404</v>
       </c>
@@ -4563,7 +4567,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" s="5">
         <v>36434</v>
       </c>
@@ -4571,7 +4575,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" s="5">
         <v>36465</v>
       </c>
@@ -4579,7 +4583,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" s="5">
         <v>36495</v>
       </c>
@@ -4587,7 +4591,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" s="5">
         <v>36526</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" s="5">
         <v>36557</v>
       </c>
@@ -4603,7 +4607,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" s="5">
         <v>36586</v>
       </c>
@@ -4611,7 +4615,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" s="5">
         <v>36617</v>
       </c>
@@ -4619,7 +4623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" s="5">
         <v>36647</v>
       </c>
@@ -4627,7 +4631,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" s="5">
         <v>36678</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" s="5">
         <v>36708</v>
       </c>
@@ -4643,7 +4647,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" s="5">
         <v>36739</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" s="5">
         <v>36770</v>
       </c>
@@ -4659,7 +4663,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" s="5">
         <v>36800</v>
       </c>
@@ -4667,7 +4671,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" s="5">
         <v>36831</v>
       </c>
@@ -4675,7 +4679,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" s="5">
         <v>36861</v>
       </c>
@@ -4683,7 +4687,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" s="5">
         <v>36892</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" s="5">
         <v>36923</v>
       </c>
@@ -4699,7 +4703,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" s="5">
         <v>36951</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" s="5">
         <v>36982</v>
       </c>
@@ -4715,7 +4719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" s="5">
         <v>37012</v>
       </c>
@@ -4723,7 +4727,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" s="5">
         <v>37043</v>
       </c>
@@ -4731,7 +4735,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" s="5">
         <v>37073</v>
       </c>
@@ -4739,7 +4743,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" s="5">
         <v>37104</v>
       </c>
@@ -4747,7 +4751,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" s="5">
         <v>37135</v>
       </c>
@@ -4755,7 +4759,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" s="5">
         <v>37165</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" s="5">
         <v>37196</v>
       </c>
@@ -4771,7 +4775,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" s="5">
         <v>37226</v>
       </c>
@@ -4779,7 +4783,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" s="5">
         <v>37257</v>
       </c>
@@ -4787,7 +4791,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" s="5">
         <v>37288</v>
       </c>
@@ -4795,7 +4799,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" s="5">
         <v>37316</v>
       </c>
@@ -4803,7 +4807,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" s="5">
         <v>37347</v>
       </c>
@@ -4811,7 +4815,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" s="5">
         <v>37377</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" s="5">
         <v>37408</v>
       </c>
@@ -4827,7 +4831,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" s="5">
         <v>37438</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" s="5">
         <v>37469</v>
       </c>
@@ -4843,7 +4847,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" s="5">
         <v>37500</v>
       </c>
@@ -4851,7 +4855,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" s="5">
         <v>37530</v>
       </c>
@@ -4859,7 +4863,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" s="5">
         <v>37561</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" s="5">
         <v>37591</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" s="5">
         <v>37622</v>
       </c>
@@ -4883,7 +4887,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" s="5">
         <v>37653</v>
       </c>
@@ -4891,7 +4895,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" s="5">
         <v>37681</v>
       </c>
@@ -4899,7 +4903,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" s="5">
         <v>37712</v>
       </c>
@@ -4907,7 +4911,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" s="5">
         <v>37742</v>
       </c>
@@ -4915,7 +4919,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" s="5">
         <v>37773</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" s="5">
         <v>37803</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" s="5">
         <v>37834</v>
       </c>
@@ -4939,7 +4943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" s="5">
         <v>37865</v>
       </c>
@@ -4947,7 +4951,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" s="5">
         <v>37895</v>
       </c>
@@ -4955,7 +4959,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" s="5">
         <v>37926</v>
       </c>
@@ -4963,7 +4967,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" s="5">
         <v>37956</v>
       </c>
@@ -4971,7 +4975,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" s="5">
         <v>37987</v>
       </c>
@@ -4979,7 +4983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" s="5">
         <v>38018</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" s="5">
         <v>38047</v>
       </c>
@@ -4995,7 +4999,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" s="5">
         <v>38078</v>
       </c>
@@ -5003,7 +5007,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" s="5">
         <v>38108</v>
       </c>
@@ -5011,7 +5015,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" s="5">
         <v>38139</v>
       </c>
@@ -5019,7 +5023,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" s="5">
         <v>38169</v>
       </c>
@@ -5027,7 +5031,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" s="5">
         <v>38200</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" s="5">
         <v>38231</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" s="5">
         <v>38261</v>
       </c>
@@ -5051,7 +5055,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" s="5">
         <v>38292</v>
       </c>
@@ -5059,7 +5063,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" s="5">
         <v>38322</v>
       </c>
@@ -5067,7 +5071,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" s="5">
         <v>38353</v>
       </c>
@@ -5075,7 +5079,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" s="5">
         <v>38384</v>
       </c>
@@ -5083,7 +5087,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" s="5">
         <v>38412</v>
       </c>
@@ -5091,7 +5095,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" s="5">
         <v>38443</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" s="5">
         <v>38473</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" s="5">
         <v>38504</v>
       </c>
@@ -5115,7 +5119,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" s="5">
         <v>38534</v>
       </c>
@@ -5123,7 +5127,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" s="5">
         <v>38565</v>
       </c>
@@ -5131,7 +5135,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" s="5">
         <v>38596</v>
       </c>
@@ -5139,7 +5143,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" s="5">
         <v>38626</v>
       </c>
@@ -5147,7 +5151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" s="5">
         <v>38657</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" s="5">
         <v>38687</v>
       </c>
@@ -5163,7 +5167,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" s="5">
         <v>38718</v>
       </c>
@@ -5171,7 +5175,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" s="5">
         <v>38749</v>
       </c>
@@ -5179,7 +5183,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" s="5">
         <v>38777</v>
       </c>
@@ -5187,7 +5191,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" s="5">
         <v>38808</v>
       </c>
@@ -5195,7 +5199,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" s="5">
         <v>38838</v>
       </c>
@@ -5203,7 +5207,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" s="5">
         <v>38869</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" s="5">
         <v>38899</v>
       </c>
@@ -5219,7 +5223,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" s="5">
         <v>38930</v>
       </c>
@@ -5227,7 +5231,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" s="5">
         <v>38961</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" s="5">
         <v>38991</v>
       </c>
@@ -5243,7 +5247,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" s="5">
         <v>39022</v>
       </c>
@@ -5251,7 +5255,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" s="5">
         <v>39052</v>
       </c>
@@ -5259,7 +5263,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" s="5">
         <v>39083</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" s="5">
         <v>39114</v>
       </c>
@@ -5275,7 +5279,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" s="5">
         <v>39142</v>
       </c>
@@ -5283,7 +5287,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" s="5">
         <v>39173</v>
       </c>
@@ -5291,7 +5295,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" s="5">
         <v>39203</v>
       </c>
@@ -5299,7 +5303,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" s="5">
         <v>39234</v>
       </c>
@@ -5307,7 +5311,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" s="5">
         <v>39264</v>
       </c>
@@ -5315,7 +5319,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" s="5">
         <v>39295</v>
       </c>
@@ -5323,7 +5327,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" s="5">
         <v>39326</v>
       </c>
@@ -5331,7 +5335,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" s="5">
         <v>39356</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" s="5">
         <v>39387</v>
       </c>
@@ -5347,7 +5351,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" s="5">
         <v>39417</v>
       </c>
@@ -5355,7 +5359,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" s="5">
         <v>39448</v>
       </c>
@@ -5363,7 +5367,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" s="5">
         <v>39479</v>
       </c>
@@ -5371,7 +5375,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" s="5">
         <v>39508</v>
       </c>
@@ -5379,7 +5383,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" s="5">
         <v>39539</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" s="5">
         <v>39569</v>
       </c>
@@ -5395,7 +5399,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" s="5">
         <v>39600</v>
       </c>
@@ -5403,7 +5407,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" s="5">
         <v>39630</v>
       </c>
@@ -5411,7 +5415,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" s="5">
         <v>39661</v>
       </c>
@@ -5419,7 +5423,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" s="5">
         <v>39692</v>
       </c>
@@ -5427,7 +5431,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" s="5">
         <v>39722</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" s="5">
         <v>39753</v>
       </c>
@@ -5443,7 +5447,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" s="5">
         <v>39783</v>
       </c>
@@ -5451,7 +5455,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A612" s="5">
         <v>39814</v>
       </c>
@@ -5459,7 +5463,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A613" s="5">
         <v>39845</v>
       </c>
@@ -5467,7 +5471,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A614" s="5">
         <v>39873</v>
       </c>
@@ -5475,7 +5479,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A615" s="5">
         <v>39904</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A616" s="5">
         <v>39934</v>
       </c>
@@ -5491,7 +5495,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A617" s="5">
         <v>39965</v>
       </c>
@@ -5499,7 +5503,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A618" s="5">
         <v>39995</v>
       </c>
@@ -5507,7 +5511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A619" s="5">
         <v>40026</v>
       </c>
@@ -5515,7 +5519,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A620" s="5">
         <v>40057</v>
       </c>
@@ -5523,7 +5527,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A621" s="5">
         <v>40087</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A622" s="5">
         <v>40118</v>
       </c>
@@ -5539,7 +5543,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A623" s="5">
         <v>40148</v>
       </c>
@@ -5547,7 +5551,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A624" s="5">
         <v>40179</v>
       </c>
@@ -5555,7 +5559,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A625" s="5">
         <v>40210</v>
       </c>
@@ -5563,7 +5567,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A626" s="5">
         <v>40238</v>
       </c>
@@ -5571,7 +5575,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A627" s="5">
         <v>40269</v>
       </c>
@@ -5579,7 +5583,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A628" s="5">
         <v>40299</v>
       </c>
@@ -5587,7 +5591,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A629" s="5">
         <v>40330</v>
       </c>
@@ -5595,7 +5599,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A630" s="5">
         <v>40360</v>
       </c>
@@ -5603,7 +5607,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A631" s="5">
         <v>40391</v>
       </c>
@@ -5611,7 +5615,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A632" s="5">
         <v>40422</v>
       </c>
@@ -5619,7 +5623,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A633" s="5">
         <v>40452</v>
       </c>
@@ -5627,7 +5631,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A634" s="5">
         <v>40483</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A635" s="5">
         <v>40513</v>
       </c>
@@ -5643,7 +5647,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A636" s="5">
         <v>40544</v>
       </c>
@@ -5651,7 +5655,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A637" s="5">
         <v>40575</v>
       </c>
@@ -5659,7 +5663,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A638" s="5">
         <v>40603</v>
       </c>
@@ -5667,7 +5671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A639" s="5">
         <v>40634</v>
       </c>
@@ -5675,7 +5679,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A640" s="5">
         <v>40664</v>
       </c>
@@ -5683,7 +5687,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A641" s="5">
         <v>40695</v>
       </c>
@@ -5691,7 +5695,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A642" s="5">
         <v>40725</v>
       </c>
@@ -5699,7 +5703,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A643" s="5">
         <v>40756</v>
       </c>
@@ -5707,7 +5711,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A644" s="5">
         <v>40787</v>
       </c>
@@ -5715,7 +5719,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A645" s="5">
         <v>40817</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A646" s="5">
         <v>40848</v>
       </c>
@@ -5731,7 +5735,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A647" s="5">
         <v>40878</v>
       </c>
@@ -5739,7 +5743,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A648" s="5">
         <v>40909</v>
       </c>
@@ -5747,7 +5751,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A649" s="5">
         <v>40940</v>
       </c>
@@ -5755,7 +5759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A650" s="5">
         <v>40969</v>
       </c>
@@ -5763,7 +5767,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A651" s="5">
         <v>41000</v>
       </c>
@@ -5771,7 +5775,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A652" s="5">
         <v>41030</v>
       </c>
@@ -5779,7 +5783,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A653" s="5">
         <v>41061</v>
       </c>
@@ -5787,7 +5791,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A654" s="5">
         <v>41091</v>
       </c>
@@ -5795,7 +5799,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A655" s="5">
         <v>41122</v>
       </c>
@@ -5803,7 +5807,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A656" s="5">
         <v>41153</v>
       </c>
@@ -5811,7 +5815,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A657" s="5">
         <v>41183</v>
       </c>
@@ -5819,7 +5823,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A658" s="5">
         <v>41214</v>
       </c>
@@ -5827,7 +5831,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A659" s="5">
         <v>41244</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A660" s="5">
         <v>41275</v>
       </c>
@@ -5843,7 +5847,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A661" s="5">
         <v>41306</v>
       </c>
@@ -5851,7 +5855,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A662" s="5">
         <v>41334</v>
       </c>
@@ -5859,7 +5863,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A663" s="5">
         <v>41365</v>
       </c>
@@ -5867,7 +5871,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A664" s="5">
         <v>41395</v>
       </c>
@@ -5875,7 +5879,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A665" s="5">
         <v>41426</v>
       </c>
@@ -5883,7 +5887,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A666" s="5">
         <v>41456</v>
       </c>
@@ -5891,7 +5895,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A667" s="5">
         <v>41487</v>
       </c>
@@ -5899,7 +5903,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A668" s="5">
         <v>41518</v>
       </c>
@@ -5907,7 +5911,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A669" s="5">
         <v>41548</v>
       </c>
@@ -5915,7 +5919,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A670" s="5">
         <v>41579</v>
       </c>
@@ -5923,7 +5927,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A671" s="5">
         <v>41609</v>
       </c>
@@ -5931,7 +5935,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A672" s="5">
         <v>41640</v>
       </c>
@@ -5939,7 +5943,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A673" s="5">
         <v>41671</v>
       </c>
@@ -5947,7 +5951,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A674" s="5">
         <v>41699</v>
       </c>
@@ -5955,7 +5959,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A675" s="5">
         <v>41730</v>
       </c>
@@ -5963,7 +5967,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A676" s="5">
         <v>41760</v>
       </c>
@@ -5971,7 +5975,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A677" s="5">
         <v>41791</v>
       </c>
@@ -5979,7 +5983,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A678" s="5">
         <v>41821</v>
       </c>
@@ -5987,7 +5991,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A679" s="5">
         <v>41852</v>
       </c>
@@ -5995,7 +5999,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A680" s="5">
         <v>41883</v>
       </c>
@@ -6003,7 +6007,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A681" s="5">
         <v>41913</v>
       </c>
@@ -6011,7 +6015,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A682" s="5">
         <v>41944</v>
       </c>
@@ -6019,7 +6023,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A683" s="5">
         <v>41974</v>
       </c>
@@ -6027,7 +6031,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A684" s="5">
         <v>42005</v>
       </c>
@@ -6035,7 +6039,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A685" s="5">
         <v>42036</v>
       </c>
@@ -6043,7 +6047,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A686" s="5">
         <v>42064</v>
       </c>
@@ -6051,7 +6055,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A687" s="5">
         <v>42095</v>
       </c>
@@ -6059,7 +6063,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A688" s="5">
         <v>42125</v>
       </c>
@@ -6067,7 +6071,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A689" s="5">
         <v>42156</v>
       </c>
@@ -6075,7 +6079,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A690" s="5">
         <v>42186</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A691" s="5">
         <v>42217</v>
       </c>
@@ -6091,7 +6095,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A692" s="5">
         <v>42248</v>
       </c>
@@ -6099,7 +6103,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A693" s="5">
         <v>42278</v>
       </c>
@@ -6107,7 +6111,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A694" s="5">
         <v>42309</v>
       </c>
@@ -6115,7 +6119,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A695" s="5">
         <v>42339</v>
       </c>
@@ -6123,7 +6127,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A696" s="5">
         <v>42370</v>
       </c>
@@ -6131,7 +6135,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A697" s="5">
         <v>42401</v>
       </c>
@@ -6139,7 +6143,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A698" s="5">
         <v>42430</v>
       </c>
@@ -6147,7 +6151,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A699" s="5">
         <v>42461</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A700" s="5">
         <v>42491</v>
       </c>
@@ -6163,7 +6167,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A701" s="5">
         <v>42522</v>
       </c>
@@ -6171,7 +6175,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A702" s="5">
         <v>42552</v>
       </c>
@@ -6179,7 +6183,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A703" s="5">
         <v>42583</v>
       </c>
@@ -6187,7 +6191,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A704" s="5">
         <v>42614</v>
       </c>
@@ -6195,7 +6199,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A705" s="5">
         <v>42644</v>
       </c>
@@ -6203,7 +6207,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A706" s="5">
         <v>42675</v>
       </c>
@@ -6211,7 +6215,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A707" s="5">
         <v>42705</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A708" s="5">
         <v>42736</v>
       </c>
@@ -6227,7 +6231,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A709" s="5">
         <v>42767</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A710" s="5">
         <v>42795</v>
       </c>
@@ -6243,7 +6247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A711" s="5">
         <v>42826</v>
       </c>
@@ -6251,7 +6255,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A712" s="5">
         <v>42856</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A713" s="5">
         <v>42887</v>
       </c>
@@ -6267,7 +6271,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A714" s="5">
         <v>42917</v>
       </c>
@@ -6275,7 +6279,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A715" s="5">
         <v>42948</v>
       </c>
@@ -6283,7 +6287,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A716" s="5">
         <v>42979</v>
       </c>
@@ -6291,7 +6295,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A717" s="5">
         <v>43009</v>
       </c>
@@ -6299,7 +6303,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A718" s="5">
         <v>43040</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A719" s="5">
         <v>43070</v>
       </c>
@@ -6315,7 +6319,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A720" s="5">
         <v>43101</v>
       </c>
@@ -6323,7 +6327,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A721" s="5">
         <v>43132</v>
       </c>
@@ -6331,7 +6335,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A722" s="5">
         <v>43160</v>
       </c>
@@ -6339,7 +6343,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A723" s="5">
         <v>43191</v>
       </c>
@@ -6347,7 +6351,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A724" s="5">
         <v>43221</v>
       </c>
@@ -6355,7 +6359,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A725" s="5">
         <v>43252</v>
       </c>
@@ -6363,7 +6367,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A726" s="5">
         <v>43282</v>
       </c>
@@ -6371,7 +6375,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A727" s="5">
         <v>43313</v>
       </c>
@@ -6379,7 +6383,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A728" s="5">
         <v>43344</v>
       </c>
@@ -6387,7 +6391,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A729" s="5">
         <v>43374</v>
       </c>
@@ -6395,7 +6399,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A730" s="5">
         <v>43405</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A731" s="5">
         <v>43435</v>
       </c>
@@ -6411,7 +6415,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A732" s="5">
         <v>43466</v>
       </c>
@@ -6419,7 +6423,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A733" s="5">
         <v>43497</v>
       </c>
@@ -6427,7 +6431,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A734" s="5">
         <v>43525</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A735" s="5">
         <v>43556</v>
       </c>
@@ -6443,7 +6447,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A736" s="5">
         <v>43586</v>
       </c>
@@ -6451,7 +6455,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A737" s="5">
         <v>43617</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A738" s="5">
         <v>43647</v>
       </c>
@@ -6467,7 +6471,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A739" s="5">
         <v>43678</v>
       </c>
@@ -6475,7 +6479,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A740" s="5">
         <v>43709</v>
       </c>
@@ -6483,7 +6487,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A741" s="5">
         <v>43739</v>
       </c>
@@ -6491,7 +6495,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A742" s="5">
         <v>43770</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A743" s="5">
         <v>43800</v>
       </c>
@@ -6507,7 +6511,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A744" s="5">
         <v>43831</v>
       </c>
@@ -6515,7 +6519,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A745" s="5">
         <v>43862</v>
       </c>
@@ -6523,7 +6527,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A746" s="5">
         <v>43891</v>
       </c>
@@ -6531,7 +6535,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A747" s="5">
         <v>43922</v>
       </c>
@@ -6539,7 +6543,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A748" s="5">
         <v>43952</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A749" s="5">
         <v>43983</v>
       </c>
@@ -6555,7 +6559,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A750" s="5">
         <v>44013</v>
       </c>
@@ -6563,7 +6567,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A751" s="5">
         <v>44044</v>
       </c>
@@ -6585,17 +6589,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/io-model/hsr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/hsr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A613612-D15C-BF40-820A-3920B5C694DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDDC7A-7721-B343-9D66-FEE926E1D134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1460" windowWidth="24100" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="3100" yWindow="1640" windowWidth="24100" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>

--- a/InputData/io-model/HSR/Household Savings Rate.xlsx
+++ b/InputData/io-model/HSR/Household Savings Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/io-model/hsr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\NJ\io-model\HSR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FDDC7A-7721-B343-9D66-FEE926E1D134}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B480F7C3-6B3C-4B66-9554-9F98C1DD42ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3100" yWindow="1640" windowWidth="24100" windowHeight="14880" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
+    <workbookView xWindow="1170" yWindow="375" windowWidth="13680" windowHeight="17025" xr2:uid="{DEC7AB4C-7F50-4FCE-8B94-D10A97031845}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>HSR Household Savings Rate</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>pandemic in early 2020.</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
   </si>
 </sst>
 </file>
@@ -506,17 +509,20 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
       <c r="C1" s="8">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>44810</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,62 +530,62 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>2020</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
@@ -597,44 +603,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0689169-21E6-4EF2-964C-014C1F814EBE}">
   <dimension ref="A1:B751"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A637" workbookViewId="0">
+      <selection activeCell="A648" sqref="A648:XFD648"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" customWidth="1"/>
+    <col min="1" max="1" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -642,12 +650,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -655,7 +663,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>21551</v>
       </c>
@@ -663,7 +671,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>21582</v>
       </c>
@@ -671,7 +679,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>21610</v>
       </c>
@@ -679,7 +687,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>21641</v>
       </c>
@@ -687,7 +695,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>21671</v>
       </c>
@@ -695,7 +703,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>21702</v>
       </c>
@@ -703,7 +711,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>21732</v>
       </c>
@@ -711,7 +719,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>21763</v>
       </c>
@@ -719,7 +727,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>21794</v>
       </c>
@@ -727,7 +735,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>21824</v>
       </c>
@@ -735,7 +743,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>21855</v>
       </c>
@@ -743,7 +751,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>21885</v>
       </c>
@@ -751,7 +759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>21916</v>
       </c>
@@ -759,7 +767,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>21947</v>
       </c>
@@ -767,7 +775,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <v>21976</v>
       </c>
@@ -775,7 +783,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>22007</v>
       </c>
@@ -783,7 +791,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <v>22037</v>
       </c>
@@ -791,7 +799,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>22068</v>
       </c>
@@ -799,7 +807,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <v>22098</v>
       </c>
@@ -807,7 +815,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>22129</v>
       </c>
@@ -815,7 +823,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <v>22160</v>
       </c>
@@ -823,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>22190</v>
       </c>
@@ -831,7 +839,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <v>22221</v>
       </c>
@@ -839,7 +847,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>22251</v>
       </c>
@@ -847,7 +855,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <v>22282</v>
       </c>
@@ -855,7 +863,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>22313</v>
       </c>
@@ -863,7 +871,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>22341</v>
       </c>
@@ -871,7 +879,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>22372</v>
       </c>
@@ -879,7 +887,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>22402</v>
       </c>
@@ -887,7 +895,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>22433</v>
       </c>
@@ -895,7 +903,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>22463</v>
       </c>
@@ -903,7 +911,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>22494</v>
       </c>
@@ -911,7 +919,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>22525</v>
       </c>
@@ -919,7 +927,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>22555</v>
       </c>
@@ -927,7 +935,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>22586</v>
       </c>
@@ -935,7 +943,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>22616</v>
       </c>
@@ -943,7 +951,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <v>22647</v>
       </c>
@@ -951,7 +959,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>22678</v>
       </c>
@@ -959,7 +967,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <v>22706</v>
       </c>
@@ -967,7 +975,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>22737</v>
       </c>
@@ -975,7 +983,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <v>22767</v>
       </c>
@@ -983,7 +991,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>22798</v>
       </c>
@@ -991,7 +999,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="5">
         <v>22828</v>
       </c>
@@ -999,7 +1007,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>22859</v>
       </c>
@@ -1007,7 +1015,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="5">
         <v>22890</v>
       </c>
@@ -1015,7 +1023,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>22920</v>
       </c>
@@ -1023,7 +1031,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="5">
         <v>22951</v>
       </c>
@@ -1031,7 +1039,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>22981</v>
       </c>
@@ -1039,7 +1047,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5">
         <v>23012</v>
       </c>
@@ -1047,7 +1055,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>23043</v>
       </c>
@@ -1055,7 +1063,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="5">
         <v>23071</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>23102</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5">
         <v>23132</v>
       </c>
@@ -1079,7 +1087,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>23163</v>
       </c>
@@ -1087,7 +1095,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="5">
         <v>23193</v>
       </c>
@@ -1095,7 +1103,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>23224</v>
       </c>
@@ -1103,7 +1111,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="5">
         <v>23255</v>
       </c>
@@ -1111,7 +1119,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>23285</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="5">
         <v>23316</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>23346</v>
       </c>
@@ -1135,7 +1143,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="5">
         <v>23377</v>
       </c>
@@ -1143,7 +1151,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>23408</v>
       </c>
@@ -1151,7 +1159,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="5">
         <v>23437</v>
       </c>
@@ -1159,7 +1167,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>23468</v>
       </c>
@@ -1167,7 +1175,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="5">
         <v>23498</v>
       </c>
@@ -1175,7 +1183,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>23529</v>
       </c>
@@ -1183,7 +1191,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="5">
         <v>23559</v>
       </c>
@@ -1191,7 +1199,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>23590</v>
       </c>
@@ -1199,7 +1207,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="5">
         <v>23621</v>
       </c>
@@ -1207,7 +1215,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>23651</v>
       </c>
@@ -1215,7 +1223,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="5">
         <v>23682</v>
       </c>
@@ -1223,7 +1231,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>23712</v>
       </c>
@@ -1231,7 +1239,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="5">
         <v>23743</v>
       </c>
@@ -1239,7 +1247,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>23774</v>
       </c>
@@ -1247,7 +1255,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="5">
         <v>23802</v>
       </c>
@@ -1255,7 +1263,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>23833</v>
       </c>
@@ -1263,7 +1271,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="5">
         <v>23863</v>
       </c>
@@ -1271,7 +1279,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>23894</v>
       </c>
@@ -1279,7 +1287,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="5">
         <v>23924</v>
       </c>
@@ -1287,7 +1295,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>23955</v>
       </c>
@@ -1295,7 +1303,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="5">
         <v>23986</v>
       </c>
@@ -1303,7 +1311,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>24016</v>
       </c>
@@ -1311,7 +1319,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="5">
         <v>24047</v>
       </c>
@@ -1319,7 +1327,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>24077</v>
       </c>
@@ -1327,7 +1335,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="5">
         <v>24108</v>
       </c>
@@ -1335,7 +1343,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>24139</v>
       </c>
@@ -1343,7 +1351,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="5">
         <v>24167</v>
       </c>
@@ -1351,7 +1359,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>24198</v>
       </c>
@@ -1359,7 +1367,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="5">
         <v>24228</v>
       </c>
@@ -1367,7 +1375,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>24259</v>
       </c>
@@ -1375,7 +1383,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="5">
         <v>24289</v>
       </c>
@@ -1383,7 +1391,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>24320</v>
       </c>
@@ -1391,7 +1399,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="5">
         <v>24351</v>
       </c>
@@ -1399,7 +1407,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>24381</v>
       </c>
@@ -1407,7 +1415,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="5">
         <v>24412</v>
       </c>
@@ -1415,7 +1423,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>24442</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="5">
         <v>24473</v>
       </c>
@@ -1431,7 +1439,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>24504</v>
       </c>
@@ -1439,7 +1447,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="5">
         <v>24532</v>
       </c>
@@ -1447,7 +1455,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>24563</v>
       </c>
@@ -1455,7 +1463,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="5">
         <v>24593</v>
       </c>
@@ -1463,7 +1471,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>24624</v>
       </c>
@@ -1471,7 +1479,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="5">
         <v>24654</v>
       </c>
@@ -1479,7 +1487,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>24685</v>
       </c>
@@ -1487,7 +1495,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="5">
         <v>24716</v>
       </c>
@@ -1495,7 +1503,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>24746</v>
       </c>
@@ -1503,7 +1511,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="5">
         <v>24777</v>
       </c>
@@ -1511,7 +1519,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>24807</v>
       </c>
@@ -1519,7 +1527,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="5">
         <v>24838</v>
       </c>
@@ -1527,7 +1535,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>24869</v>
       </c>
@@ -1535,7 +1543,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="5">
         <v>24898</v>
       </c>
@@ -1543,7 +1551,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>24929</v>
       </c>
@@ -1551,7 +1559,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="5">
         <v>24959</v>
       </c>
@@ -1559,7 +1567,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>24990</v>
       </c>
@@ -1567,7 +1575,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="5">
         <v>25020</v>
       </c>
@@ -1575,7 +1583,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>25051</v>
       </c>
@@ -1583,7 +1591,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="5">
         <v>25082</v>
       </c>
@@ -1591,7 +1599,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>25112</v>
       </c>
@@ -1599,7 +1607,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="5">
         <v>25143</v>
       </c>
@@ -1607,7 +1615,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>25173</v>
       </c>
@@ -1615,7 +1623,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" s="5">
         <v>25204</v>
       </c>
@@ -1623,7 +1631,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>25235</v>
       </c>
@@ -1631,7 +1639,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" s="5">
         <v>25263</v>
       </c>
@@ -1639,7 +1647,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>25294</v>
       </c>
@@ -1647,7 +1655,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="5">
         <v>25324</v>
       </c>
@@ -1655,7 +1663,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>25355</v>
       </c>
@@ -1663,7 +1671,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="5">
         <v>25385</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>25416</v>
       </c>
@@ -1679,7 +1687,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="5">
         <v>25447</v>
       </c>
@@ -1687,7 +1695,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>25477</v>
       </c>
@@ -1695,7 +1703,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="5">
         <v>25508</v>
       </c>
@@ -1703,7 +1711,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>25538</v>
       </c>
@@ -1711,7 +1719,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="5">
         <v>25569</v>
       </c>
@@ -1719,7 +1727,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>25600</v>
       </c>
@@ -1727,7 +1735,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="5">
         <v>25628</v>
       </c>
@@ -1735,7 +1743,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>25659</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="5">
         <v>25689</v>
       </c>
@@ -1751,7 +1759,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>25720</v>
       </c>
@@ -1759,7 +1767,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="5">
         <v>25750</v>
       </c>
@@ -1767,7 +1775,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>25781</v>
       </c>
@@ -1775,7 +1783,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="5">
         <v>25812</v>
       </c>
@@ -1783,7 +1791,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>25842</v>
       </c>
@@ -1791,7 +1799,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="5">
         <v>25873</v>
       </c>
@@ -1799,7 +1807,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>25903</v>
       </c>
@@ -1807,7 +1815,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" s="5">
         <v>25934</v>
       </c>
@@ -1815,7 +1823,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>25965</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="5">
         <v>25993</v>
       </c>
@@ -1831,7 +1839,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>26024</v>
       </c>
@@ -1839,7 +1847,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="5">
         <v>26054</v>
       </c>
@@ -1847,7 +1855,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>26085</v>
       </c>
@@ -1855,7 +1863,7 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="5">
         <v>26115</v>
       </c>
@@ -1863,7 +1871,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>26146</v>
       </c>
@@ -1871,7 +1879,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" s="5">
         <v>26177</v>
       </c>
@@ -1879,7 +1887,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>26207</v>
       </c>
@@ -1887,7 +1895,7 @@
         <v>13.3</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" s="5">
         <v>26238</v>
       </c>
@@ -1895,7 +1903,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>26268</v>
       </c>
@@ -1903,7 +1911,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" s="5">
         <v>26299</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>26330</v>
       </c>
@@ -1919,7 +1927,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="5">
         <v>26359</v>
       </c>
@@ -1927,7 +1935,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>26390</v>
       </c>
@@ -1935,7 +1943,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="5">
         <v>26420</v>
       </c>
@@ -1943,7 +1951,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>26451</v>
       </c>
@@ -1951,7 +1959,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="5">
         <v>26481</v>
       </c>
@@ -1959,7 +1967,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>26512</v>
       </c>
@@ -1967,7 +1975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" s="5">
         <v>26543</v>
       </c>
@@ -1975,7 +1983,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>26573</v>
       </c>
@@ -1983,7 +1991,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="5">
         <v>26604</v>
       </c>
@@ -1991,7 +1999,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>26634</v>
       </c>
@@ -1999,7 +2007,7 @@
         <v>13.7</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="5">
         <v>26665</v>
       </c>
@@ -2007,7 +2015,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>26696</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" s="5">
         <v>26724</v>
       </c>
@@ -2023,7 +2031,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>26755</v>
       </c>
@@ -2031,7 +2039,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" s="5">
         <v>26785</v>
       </c>
@@ -2039,7 +2047,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>26816</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>13.6</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="5">
         <v>26846</v>
       </c>
@@ -2055,7 +2063,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>26877</v>
       </c>
@@ -2063,7 +2071,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="5">
         <v>26908</v>
       </c>
@@ -2071,7 +2079,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>26938</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="5">
         <v>26969</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>26999</v>
       </c>
@@ -2095,7 +2103,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" s="5">
         <v>27030</v>
       </c>
@@ -2103,7 +2111,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>27061</v>
       </c>
@@ -2111,7 +2119,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" s="5">
         <v>27089</v>
       </c>
@@ -2119,7 +2127,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>27120</v>
       </c>
@@ -2127,7 +2135,7 @@
         <v>13.1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="5">
         <v>27150</v>
       </c>
@@ -2135,7 +2143,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>27181</v>
       </c>
@@ -2143,7 +2151,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="5">
         <v>27211</v>
       </c>
@@ -2151,7 +2159,7 @@
         <v>12.8</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>27242</v>
       </c>
@@ -2159,7 +2167,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="5">
         <v>27273</v>
       </c>
@@ -2167,7 +2175,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>27303</v>
       </c>
@@ -2175,7 +2183,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="5">
         <v>27334</v>
       </c>
@@ -2183,7 +2191,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>27364</v>
       </c>
@@ -2191,7 +2199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="5">
         <v>27395</v>
       </c>
@@ -2199,7 +2207,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>27426</v>
       </c>
@@ -2207,7 +2215,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="5">
         <v>27454</v>
       </c>
@@ -2215,7 +2223,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>27485</v>
       </c>
@@ -2223,7 +2231,7 @@
         <v>14.2</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="5">
         <v>27515</v>
       </c>
@@ -2231,7 +2239,7 @@
         <v>17.3</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>27546</v>
       </c>
@@ -2239,7 +2247,7 @@
         <v>14.3</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="5">
         <v>27576</v>
       </c>
@@ -2247,7 +2255,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>27607</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="5">
         <v>27638</v>
       </c>
@@ -2263,7 +2271,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>27668</v>
       </c>
@@ -2271,7 +2279,7 @@
         <v>13.4</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="5">
         <v>27699</v>
       </c>
@@ -2279,7 +2287,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>27729</v>
       </c>
@@ -2287,7 +2295,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" s="5">
         <v>27760</v>
       </c>
@@ -2295,7 +2303,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>27791</v>
       </c>
@@ -2303,7 +2311,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" s="5">
         <v>27820</v>
       </c>
@@ -2311,7 +2319,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>27851</v>
       </c>
@@ -2319,7 +2327,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" s="5">
         <v>27881</v>
       </c>
@@ -2327,7 +2335,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>27912</v>
       </c>
@@ -2335,7 +2343,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" s="5">
         <v>27942</v>
       </c>
@@ -2343,7 +2351,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>27973</v>
       </c>
@@ -2351,7 +2359,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" s="5">
         <v>28004</v>
       </c>
@@ -2359,7 +2367,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>28034</v>
       </c>
@@ -2367,7 +2375,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" s="5">
         <v>28065</v>
       </c>
@@ -2375,7 +2383,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>28095</v>
       </c>
@@ -2383,7 +2391,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" s="5">
         <v>28126</v>
       </c>
@@ -2391,7 +2399,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>28157</v>
       </c>
@@ -2399,7 +2407,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" s="5">
         <v>28185</v>
       </c>
@@ -2407,7 +2415,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>28216</v>
       </c>
@@ -2415,7 +2423,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" s="5">
         <v>28246</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>28277</v>
       </c>
@@ -2431,7 +2439,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" s="5">
         <v>28307</v>
       </c>
@@ -2439,7 +2447,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>28338</v>
       </c>
@@ -2447,7 +2455,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" s="5">
         <v>28369</v>
       </c>
@@ -2455,7 +2463,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>28399</v>
       </c>
@@ -2463,7 +2471,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" s="5">
         <v>28430</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>28460</v>
       </c>
@@ -2479,7 +2487,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" s="5">
         <v>28491</v>
       </c>
@@ -2487,7 +2495,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>28522</v>
       </c>
@@ -2495,7 +2503,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" s="5">
         <v>28550</v>
       </c>
@@ -2503,7 +2511,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>28581</v>
       </c>
@@ -2511,7 +2519,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" s="5">
         <v>28611</v>
       </c>
@@ -2519,7 +2527,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>28642</v>
       </c>
@@ -2527,7 +2535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" s="5">
         <v>28672</v>
       </c>
@@ -2535,7 +2543,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>28703</v>
       </c>
@@ -2543,7 +2551,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" s="5">
         <v>28734</v>
       </c>
@@ -2551,7 +2559,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>28764</v>
       </c>
@@ -2559,7 +2567,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" s="5">
         <v>28795</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>28825</v>
       </c>
@@ -2575,7 +2583,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" s="5">
         <v>28856</v>
       </c>
@@ -2583,7 +2591,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>28887</v>
       </c>
@@ -2591,7 +2599,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" s="5">
         <v>28915</v>
       </c>
@@ -2599,7 +2607,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>28946</v>
       </c>
@@ -2607,7 +2615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" s="5">
         <v>28976</v>
       </c>
@@ -2615,7 +2623,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>29007</v>
       </c>
@@ -2623,7 +2631,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" s="5">
         <v>29037</v>
       </c>
@@ -2631,7 +2639,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>29068</v>
       </c>
@@ -2639,7 +2647,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="5">
         <v>29099</v>
       </c>
@@ -2647,7 +2655,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>29129</v>
       </c>
@@ -2655,7 +2663,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" s="5">
         <v>29160</v>
       </c>
@@ -2663,7 +2671,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>29190</v>
       </c>
@@ -2671,7 +2679,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" s="5">
         <v>29221</v>
       </c>
@@ -2679,7 +2687,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>29252</v>
       </c>
@@ -2687,7 +2695,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="5">
         <v>29281</v>
       </c>
@@ -2695,7 +2703,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>29312</v>
       </c>
@@ -2703,7 +2711,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" s="5">
         <v>29342</v>
       </c>
@@ -2711,7 +2719,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>29373</v>
       </c>
@@ -2719,7 +2727,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" s="5">
         <v>29403</v>
       </c>
@@ -2727,7 +2735,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>29434</v>
       </c>
@@ -2735,7 +2743,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" s="5">
         <v>29465</v>
       </c>
@@ -2743,7 +2751,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>29495</v>
       </c>
@@ -2751,7 +2759,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" s="5">
         <v>29526</v>
       </c>
@@ -2759,7 +2767,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>29556</v>
       </c>
@@ -2767,7 +2775,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" s="5">
         <v>29587</v>
       </c>
@@ -2775,7 +2783,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>29618</v>
       </c>
@@ -2783,7 +2791,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" s="5">
         <v>29646</v>
       </c>
@@ -2791,7 +2799,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>29677</v>
       </c>
@@ -2799,7 +2807,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" s="5">
         <v>29707</v>
       </c>
@@ -2807,7 +2815,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>29738</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" s="5">
         <v>29768</v>
       </c>
@@ -2823,7 +2831,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>29799</v>
       </c>
@@ -2831,7 +2839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" s="5">
         <v>29830</v>
       </c>
@@ -2839,7 +2847,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>29860</v>
       </c>
@@ -2847,7 +2855,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" s="5">
         <v>29891</v>
       </c>
@@ -2855,7 +2863,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>29921</v>
       </c>
@@ -2863,7 +2871,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" s="5">
         <v>29952</v>
       </c>
@@ -2871,7 +2879,7 @@
         <v>12.7</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>29983</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="5">
         <v>30011</v>
       </c>
@@ -2887,7 +2895,7 @@
         <v>12.2</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>30042</v>
       </c>
@@ -2895,7 +2903,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" s="5">
         <v>30072</v>
       </c>
@@ -2903,7 +2911,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>30103</v>
       </c>
@@ -2911,7 +2919,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" s="5">
         <v>30133</v>
       </c>
@@ -2919,7 +2927,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>30164</v>
       </c>
@@ -2927,7 +2935,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" s="5">
         <v>30195</v>
       </c>
@@ -2935,7 +2943,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>30225</v>
       </c>
@@ -2943,7 +2951,7 @@
         <v>11.3</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" s="5">
         <v>30256</v>
       </c>
@@ -2951,7 +2959,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>30286</v>
       </c>
@@ -2959,7 +2967,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" s="5">
         <v>30317</v>
       </c>
@@ -2967,7 +2975,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>30348</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A302" s="5">
         <v>30376</v>
       </c>
@@ -2983,7 +2991,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>30407</v>
       </c>
@@ -2991,7 +2999,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A304" s="5">
         <v>30437</v>
       </c>
@@ -2999,7 +3007,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>30468</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A306" s="5">
         <v>30498</v>
       </c>
@@ -3015,7 +3023,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>30529</v>
       </c>
@@ -3023,7 +3031,7 @@
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A308" s="5">
         <v>30560</v>
       </c>
@@ -3031,7 +3039,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>30590</v>
       </c>
@@ -3039,7 +3047,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A310" s="5">
         <v>30621</v>
       </c>
@@ -3047,7 +3055,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>30651</v>
       </c>
@@ -3055,7 +3063,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A312" s="5">
         <v>30682</v>
       </c>
@@ -3063,7 +3071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>30713</v>
       </c>
@@ -3071,7 +3079,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A314" s="5">
         <v>30742</v>
       </c>
@@ -3079,7 +3087,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>30773</v>
       </c>
@@ -3087,7 +3095,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A316" s="5">
         <v>30803</v>
       </c>
@@ -3095,7 +3103,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>30834</v>
       </c>
@@ -3103,7 +3111,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="5">
         <v>30864</v>
       </c>
@@ -3111,7 +3119,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>30895</v>
       </c>
@@ -3119,7 +3127,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="5">
         <v>30926</v>
       </c>
@@ -3127,7 +3135,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>30956</v>
       </c>
@@ -3135,7 +3143,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A322" s="5">
         <v>30987</v>
       </c>
@@ -3143,7 +3151,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>31017</v>
       </c>
@@ -3151,7 +3159,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A324" s="5">
         <v>31048</v>
       </c>
@@ -3159,7 +3167,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>31079</v>
       </c>
@@ -3167,7 +3175,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A326" s="5">
         <v>31107</v>
       </c>
@@ -3175,7 +3183,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>31138</v>
       </c>
@@ -3183,7 +3191,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="5">
         <v>31168</v>
       </c>
@@ -3191,7 +3199,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>31199</v>
       </c>
@@ -3199,7 +3207,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="5">
         <v>31229</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>31260</v>
       </c>
@@ -3215,7 +3223,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="5">
         <v>31291</v>
       </c>
@@ -3223,7 +3231,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>31321</v>
       </c>
@@ -3231,7 +3239,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A334" s="5">
         <v>31352</v>
       </c>
@@ -3239,7 +3247,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>31382</v>
       </c>
@@ -3247,7 +3255,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A336" s="5">
         <v>31413</v>
       </c>
@@ -3255,7 +3263,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>31444</v>
       </c>
@@ -3263,7 +3271,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A338" s="5">
         <v>31472</v>
       </c>
@@ -3271,7 +3279,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>31503</v>
       </c>
@@ -3279,7 +3287,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A340" s="5">
         <v>31533</v>
       </c>
@@ -3287,7 +3295,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>31564</v>
       </c>
@@ -3295,7 +3303,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A342" s="5">
         <v>31594</v>
       </c>
@@ -3303,7 +3311,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>31625</v>
       </c>
@@ -3311,7 +3319,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A344" s="5">
         <v>31656</v>
       </c>
@@ -3319,7 +3327,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>31686</v>
       </c>
@@ -3327,7 +3335,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="5">
         <v>31717</v>
       </c>
@@ -3335,7 +3343,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>31747</v>
       </c>
@@ -3343,7 +3351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A348" s="5">
         <v>31778</v>
       </c>
@@ -3351,7 +3359,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>31809</v>
       </c>
@@ -3359,7 +3367,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A350" s="5">
         <v>31837</v>
       </c>
@@ -3367,7 +3375,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>31868</v>
       </c>
@@ -3375,7 +3383,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A352" s="5">
         <v>31898</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>31929</v>
       </c>
@@ -3391,7 +3399,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A354" s="5">
         <v>31959</v>
       </c>
@@ -3399,7 +3407,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>31990</v>
       </c>
@@ -3407,7 +3415,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="5">
         <v>32021</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>32051</v>
       </c>
@@ -3423,7 +3431,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A358" s="5">
         <v>32082</v>
       </c>
@@ -3431,7 +3439,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>32112</v>
       </c>
@@ -3439,7 +3447,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A360" s="5">
         <v>32143</v>
       </c>
@@ -3447,7 +3455,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>32174</v>
       </c>
@@ -3455,7 +3463,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A362" s="5">
         <v>32203</v>
       </c>
@@ -3463,7 +3471,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>32234</v>
       </c>
@@ -3471,7 +3479,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A364" s="5">
         <v>32264</v>
       </c>
@@ -3479,7 +3487,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>32295</v>
       </c>
@@ -3487,7 +3495,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A366" s="5">
         <v>32325</v>
       </c>
@@ -3495,7 +3503,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>32356</v>
       </c>
@@ -3503,7 +3511,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A368" s="5">
         <v>32387</v>
       </c>
@@ -3511,7 +3519,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>32417</v>
       </c>
@@ -3519,7 +3527,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A370" s="5">
         <v>32448</v>
       </c>
@@ -3527,7 +3535,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>32478</v>
       </c>
@@ -3535,7 +3543,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A372" s="5">
         <v>32509</v>
       </c>
@@ -3543,7 +3551,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>32540</v>
       </c>
@@ -3551,7 +3559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A374" s="5">
         <v>32568</v>
       </c>
@@ -3559,7 +3567,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>32599</v>
       </c>
@@ -3567,7 +3575,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A376" s="5">
         <v>32629</v>
       </c>
@@ -3575,7 +3583,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>32660</v>
       </c>
@@ -3583,7 +3591,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A378" s="5">
         <v>32690</v>
       </c>
@@ -3591,7 +3599,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>32721</v>
       </c>
@@ -3599,7 +3607,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A380" s="5">
         <v>32752</v>
       </c>
@@ -3607,7 +3615,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>32782</v>
       </c>
@@ -3615,7 +3623,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A382" s="5">
         <v>32813</v>
       </c>
@@ -3623,7 +3631,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>32843</v>
       </c>
@@ -3631,7 +3639,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A384" s="5">
         <v>32874</v>
       </c>
@@ -3639,7 +3647,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>32905</v>
       </c>
@@ -3647,7 +3655,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A386" s="5">
         <v>32933</v>
       </c>
@@ -3655,7 +3663,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>32964</v>
       </c>
@@ -3663,7 +3671,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A388" s="5">
         <v>32994</v>
       </c>
@@ -3671,7 +3679,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>33025</v>
       </c>
@@ -3679,7 +3687,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A390" s="5">
         <v>33055</v>
       </c>
@@ -3687,7 +3695,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>33086</v>
       </c>
@@ -3695,7 +3703,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A392" s="5">
         <v>33117</v>
       </c>
@@ -3703,7 +3711,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>33147</v>
       </c>
@@ -3711,7 +3719,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A394" s="5">
         <v>33178</v>
       </c>
@@ -3719,7 +3727,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>33208</v>
       </c>
@@ -3727,7 +3735,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A396" s="5">
         <v>33239</v>
       </c>
@@ -3735,7 +3743,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>33270</v>
       </c>
@@ -3743,7 +3751,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A398" s="5">
         <v>33298</v>
       </c>
@@ -3751,7 +3759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>33329</v>
       </c>
@@ -3759,7 +3767,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A400" s="5">
         <v>33359</v>
       </c>
@@ -3767,7 +3775,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>33390</v>
       </c>
@@ -3775,7 +3783,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A402" s="5">
         <v>33420</v>
       </c>
@@ -3783,7 +3791,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>33451</v>
       </c>
@@ -3791,7 +3799,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A404" s="5">
         <v>33482</v>
       </c>
@@ -3799,7 +3807,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>33512</v>
       </c>
@@ -3807,7 +3815,7 @@
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A406" s="5">
         <v>33543</v>
       </c>
@@ -3815,7 +3823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>33573</v>
       </c>
@@ -3823,7 +3831,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A408" s="5">
         <v>33604</v>
       </c>
@@ -3831,7 +3839,7 @@
         <v>9.4</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>33635</v>
       </c>
@@ -3839,7 +3847,7 @@
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A410" s="5">
         <v>33664</v>
       </c>
@@ -3847,7 +3855,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>33695</v>
       </c>
@@ -3855,7 +3863,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A412" s="5">
         <v>33725</v>
       </c>
@@ -3863,7 +3871,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>33756</v>
       </c>
@@ -3871,7 +3879,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" s="5">
         <v>33786</v>
       </c>
@@ -3879,7 +3887,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>33817</v>
       </c>
@@ -3887,7 +3895,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" s="5">
         <v>33848</v>
       </c>
@@ -3895,7 +3903,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>33878</v>
       </c>
@@ -3903,7 +3911,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" s="5">
         <v>33909</v>
       </c>
@@ -3911,7 +3919,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>33939</v>
       </c>
@@ -3919,7 +3927,7 @@
         <v>10.6</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" s="5">
         <v>33970</v>
       </c>
@@ -3927,7 +3935,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>34001</v>
       </c>
@@ -3935,7 +3943,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" s="5">
         <v>34029</v>
       </c>
@@ -3943,7 +3951,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>34060</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" s="5">
         <v>34090</v>
       </c>
@@ -3959,7 +3967,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>34121</v>
       </c>
@@ -3967,7 +3975,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" s="5">
         <v>34151</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>34182</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" s="5">
         <v>34213</v>
       </c>
@@ -3991,7 +3999,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>34243</v>
       </c>
@@ -3999,7 +4007,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" s="5">
         <v>34274</v>
       </c>
@@ -4007,7 +4015,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>34304</v>
       </c>
@@ -4015,7 +4023,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A432" s="5">
         <v>34335</v>
       </c>
@@ -4023,7 +4031,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>34366</v>
       </c>
@@ -4031,7 +4039,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A434" s="5">
         <v>34394</v>
       </c>
@@ -4039,7 +4047,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>34425</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A436" s="5">
         <v>34455</v>
       </c>
@@ -4055,7 +4063,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>34486</v>
       </c>
@@ -4063,7 +4071,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A438" s="5">
         <v>34516</v>
       </c>
@@ -4071,7 +4079,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>34547</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A440" s="5">
         <v>34578</v>
       </c>
@@ -4087,7 +4095,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>34608</v>
       </c>
@@ -4095,7 +4103,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A442" s="5">
         <v>34639</v>
       </c>
@@ -4103,7 +4111,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>34669</v>
       </c>
@@ -4111,7 +4119,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A444" s="5">
         <v>34700</v>
       </c>
@@ -4119,7 +4127,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>34731</v>
       </c>
@@ -4127,7 +4135,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A446" s="5">
         <v>34759</v>
       </c>
@@ -4135,7 +4143,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>34790</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A448" s="5">
         <v>34820</v>
       </c>
@@ -4151,7 +4159,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>34851</v>
       </c>
@@ -4159,7 +4167,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A450" s="5">
         <v>34881</v>
       </c>
@@ -4167,7 +4175,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>34912</v>
       </c>
@@ -4175,7 +4183,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A452" s="5">
         <v>34943</v>
       </c>
@@ -4183,7 +4191,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>34973</v>
       </c>
@@ -4191,7 +4199,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A454" s="5">
         <v>35004</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>35034</v>
       </c>
@@ -4207,7 +4215,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A456" s="5">
         <v>35065</v>
       </c>
@@ -4215,7 +4223,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>35096</v>
       </c>
@@ -4223,7 +4231,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A458" s="5">
         <v>35125</v>
       </c>
@@ -4231,7 +4239,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>35156</v>
       </c>
@@ -4239,7 +4247,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A460" s="5">
         <v>35186</v>
       </c>
@@ -4247,7 +4255,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>35217</v>
       </c>
@@ -4255,7 +4263,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A462" s="5">
         <v>35247</v>
       </c>
@@ -4263,7 +4271,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>35278</v>
       </c>
@@ -4271,7 +4279,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A464" s="5">
         <v>35309</v>
       </c>
@@ -4279,7 +4287,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>35339</v>
       </c>
@@ -4287,7 +4295,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A466" s="5">
         <v>35370</v>
       </c>
@@ -4295,7 +4303,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>35400</v>
       </c>
@@ -4303,7 +4311,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A468" s="5">
         <v>35431</v>
       </c>
@@ -4311,7 +4319,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>35462</v>
       </c>
@@ -4319,7 +4327,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A470" s="5">
         <v>35490</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>35521</v>
       </c>
@@ -4335,7 +4343,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A472" s="5">
         <v>35551</v>
       </c>
@@ -4343,7 +4351,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>35582</v>
       </c>
@@ -4351,7 +4359,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A474" s="5">
         <v>35612</v>
       </c>
@@ -4359,7 +4367,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>35643</v>
       </c>
@@ -4367,7 +4375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A476" s="5">
         <v>35674</v>
       </c>
@@ -4375,7 +4383,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>35704</v>
       </c>
@@ -4383,7 +4391,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A478" s="5">
         <v>35735</v>
       </c>
@@ -4391,7 +4399,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>35765</v>
       </c>
@@ -4399,7 +4407,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A480" s="5">
         <v>35796</v>
       </c>
@@ -4407,7 +4415,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>35827</v>
       </c>
@@ -4415,7 +4423,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A482" s="5">
         <v>35855</v>
       </c>
@@ -4423,7 +4431,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>35886</v>
       </c>
@@ -4431,7 +4439,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A484" s="5">
         <v>35916</v>
       </c>
@@ -4439,7 +4447,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>35947</v>
       </c>
@@ -4447,7 +4455,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A486" s="5">
         <v>35977</v>
       </c>
@@ -4455,7 +4463,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>36008</v>
       </c>
@@ -4463,7 +4471,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A488" s="5">
         <v>36039</v>
       </c>
@@ -4471,7 +4479,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>36069</v>
       </c>
@@ -4479,7 +4487,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A490" s="5">
         <v>36100</v>
       </c>
@@ -4487,7 +4495,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>36130</v>
       </c>
@@ -4495,7 +4503,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A492" s="5">
         <v>36161</v>
       </c>
@@ -4503,7 +4511,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>36192</v>
       </c>
@@ -4511,7 +4519,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A494" s="5">
         <v>36220</v>
       </c>
@@ -4519,7 +4527,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>36251</v>
       </c>
@@ -4527,7 +4535,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A496" s="5">
         <v>36281</v>
       </c>
@@ -4535,7 +4543,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>36312</v>
       </c>
@@ -4543,7 +4551,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A498" s="5">
         <v>36342</v>
       </c>
@@ -4551,7 +4559,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>36373</v>
       </c>
@@ -4559,7 +4567,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A500" s="5">
         <v>36404</v>
       </c>
@@ -4567,7 +4575,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>36434</v>
       </c>
@@ -4575,7 +4583,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A502" s="5">
         <v>36465</v>
       </c>
@@ -4583,7 +4591,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A503" s="5">
         <v>36495</v>
       </c>
@@ -4591,7 +4599,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A504" s="5">
         <v>36526</v>
       </c>
@@ -4599,7 +4607,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A505" s="5">
         <v>36557</v>
       </c>
@@ -4607,7 +4615,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A506" s="5">
         <v>36586</v>
       </c>
@@ -4615,7 +4623,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A507" s="5">
         <v>36617</v>
       </c>
@@ -4623,7 +4631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A508" s="5">
         <v>36647</v>
       </c>
@@ -4631,7 +4639,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A509" s="5">
         <v>36678</v>
       </c>
@@ -4639,7 +4647,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A510" s="5">
         <v>36708</v>
       </c>
@@ -4647,7 +4655,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A511" s="5">
         <v>36739</v>
       </c>
@@ -4655,7 +4663,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A512" s="5">
         <v>36770</v>
       </c>
@@ -4663,7 +4671,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A513" s="5">
         <v>36800</v>
       </c>
@@ -4671,7 +4679,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A514" s="5">
         <v>36831</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A515" s="5">
         <v>36861</v>
       </c>
@@ -4687,7 +4695,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A516" s="5">
         <v>36892</v>
       </c>
@@ -4695,7 +4703,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A517" s="5">
         <v>36923</v>
       </c>
@@ -4703,7 +4711,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A518" s="5">
         <v>36951</v>
       </c>
@@ -4711,7 +4719,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A519" s="5">
         <v>36982</v>
       </c>
@@ -4719,7 +4727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A520" s="5">
         <v>37012</v>
       </c>
@@ -4727,7 +4735,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A521" s="5">
         <v>37043</v>
       </c>
@@ -4735,7 +4743,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A522" s="5">
         <v>37073</v>
       </c>
@@ -4743,7 +4751,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A523" s="5">
         <v>37104</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A524" s="5">
         <v>37135</v>
       </c>
@@ -4759,7 +4767,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A525" s="5">
         <v>37165</v>
       </c>
@@ -4767,7 +4775,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A526" s="5">
         <v>37196</v>
       </c>
@@ -4775,7 +4783,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A527" s="5">
         <v>37226</v>
       </c>
@@ -4783,7 +4791,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A528" s="5">
         <v>37257</v>
       </c>
@@ -4791,7 +4799,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A529" s="5">
         <v>37288</v>
       </c>
@@ -4799,7 +4807,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A530" s="5">
         <v>37316</v>
       </c>
@@ -4807,7 +4815,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A531" s="5">
         <v>37347</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A532" s="5">
         <v>37377</v>
       </c>
@@ -4823,7 +4831,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A533" s="5">
         <v>37408</v>
       </c>
@@ -4831,7 +4839,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A534" s="5">
         <v>37438</v>
       </c>
@@ -4839,7 +4847,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A535" s="5">
         <v>37469</v>
       </c>
@@ -4847,7 +4855,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A536" s="5">
         <v>37500</v>
       </c>
@@ -4855,7 +4863,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A537" s="5">
         <v>37530</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A538" s="5">
         <v>37561</v>
       </c>
@@ -4871,7 +4879,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A539" s="5">
         <v>37591</v>
       </c>
@@ -4879,7 +4887,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A540" s="5">
         <v>37622</v>
       </c>
@@ -4887,7 +4895,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A541" s="5">
         <v>37653</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A542" s="5">
         <v>37681</v>
       </c>
@@ -4903,7 +4911,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A543" s="5">
         <v>37712</v>
       </c>
@@ -4911,7 +4919,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A544" s="5">
         <v>37742</v>
       </c>
@@ -4919,7 +4927,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A545" s="5">
         <v>37773</v>
       </c>
@@ -4927,7 +4935,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A546" s="5">
         <v>37803</v>
       </c>
@@ -4935,7 +4943,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A547" s="5">
         <v>37834</v>
       </c>
@@ -4943,7 +4951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A548" s="5">
         <v>37865</v>
       </c>
@@ -4951,7 +4959,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A549" s="5">
         <v>37895</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A550" s="5">
         <v>37926</v>
       </c>
@@ -4967,7 +4975,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A551" s="5">
         <v>37956</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A552" s="5">
         <v>37987</v>
       </c>
@@ -4983,7 +4991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A553" s="5">
         <v>38018</v>
       </c>
@@ -4991,7 +4999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A554" s="5">
         <v>38047</v>
       </c>
@@ -4999,7 +5007,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A555" s="5">
         <v>38078</v>
       </c>
@@ -5007,7 +5015,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A556" s="5">
         <v>38108</v>
       </c>
@@ -5015,7 +5023,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A557" s="5">
         <v>38139</v>
       </c>
@@ -5023,7 +5031,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A558" s="5">
         <v>38169</v>
       </c>
@@ -5031,7 +5039,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A559" s="5">
         <v>38200</v>
       </c>
@@ -5039,7 +5047,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A560" s="5">
         <v>38231</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A561" s="5">
         <v>38261</v>
       </c>
@@ -5055,7 +5063,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A562" s="5">
         <v>38292</v>
       </c>
@@ -5063,7 +5071,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A563" s="5">
         <v>38322</v>
       </c>
@@ -5071,7 +5079,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A564" s="5">
         <v>38353</v>
       </c>
@@ -5079,7 +5087,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A565" s="5">
         <v>38384</v>
       </c>
@@ -5087,7 +5095,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A566" s="5">
         <v>38412</v>
       </c>
@@ -5095,7 +5103,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A567" s="5">
         <v>38443</v>
       </c>
@@ -5103,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A568" s="5">
         <v>38473</v>
       </c>
@@ -5111,7 +5119,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A569" s="5">
         <v>38504</v>
       </c>
@@ -5119,7 +5127,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A570" s="5">
         <v>38534</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A571" s="5">
         <v>38565</v>
       </c>
@@ -5135,7 +5143,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A572" s="5">
         <v>38596</v>
       </c>
@@ -5143,7 +5151,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A573" s="5">
         <v>38626</v>
       </c>
@@ -5151,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A574" s="5">
         <v>38657</v>
       </c>
@@ -5159,7 +5167,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A575" s="5">
         <v>38687</v>
       </c>
@@ -5167,7 +5175,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A576" s="5">
         <v>38718</v>
       </c>
@@ -5175,7 +5183,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="5">
         <v>38749</v>
       </c>
@@ -5183,7 +5191,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="5">
         <v>38777</v>
       </c>
@@ -5191,7 +5199,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="5">
         <v>38808</v>
       </c>
@@ -5199,7 +5207,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="5">
         <v>38838</v>
       </c>
@@ -5207,7 +5215,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="5">
         <v>38869</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="5">
         <v>38899</v>
       </c>
@@ -5223,7 +5231,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A583" s="5">
         <v>38930</v>
       </c>
@@ -5231,7 +5239,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="5">
         <v>38961</v>
       </c>
@@ -5239,7 +5247,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="5">
         <v>38991</v>
       </c>
@@ -5247,7 +5255,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="5">
         <v>39022</v>
       </c>
@@ -5255,7 +5263,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="5">
         <v>39052</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A588" s="5">
         <v>39083</v>
       </c>
@@ -5271,7 +5279,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="5">
         <v>39114</v>
       </c>
@@ -5279,7 +5287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="5">
         <v>39142</v>
       </c>
@@ -5287,7 +5295,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="5">
         <v>39173</v>
       </c>
@@ -5295,7 +5303,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A592" s="5">
         <v>39203</v>
       </c>
@@ -5303,7 +5311,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="5">
         <v>39234</v>
       </c>
@@ -5311,7 +5319,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="5">
         <v>39264</v>
       </c>
@@ -5319,7 +5327,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A595" s="5">
         <v>39295</v>
       </c>
@@ -5327,7 +5335,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="5">
         <v>39326</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="5">
         <v>39356</v>
       </c>
@@ -5343,7 +5351,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="5">
         <v>39387</v>
       </c>
@@ -5351,7 +5359,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="5">
         <v>39417</v>
       </c>
@@ -5359,7 +5367,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="5">
         <v>39448</v>
       </c>
@@ -5367,7 +5375,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="5">
         <v>39479</v>
       </c>
@@ -5375,7 +5383,7 @@
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="5">
         <v>39508</v>
       </c>
@@ -5383,7 +5391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="5">
         <v>39539</v>
       </c>
@@ -5391,7 +5399,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="5">
         <v>39569</v>
       </c>
@@ -5399,7 +5407,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="5">
         <v>39600</v>
       </c>
@@ -5407,7 +5415,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="5">
         <v>39630</v>
       </c>
@@ -5415,7 +5423,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A607" s="5">
         <v>39661</v>
       </c>
@@ -5423,7 +5431,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="5">
         <v>39692</v>
       </c>
@@ -5431,7 +5439,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="5">
         <v>39722</v>
       </c>
@@ -5439,7 +5447,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A610" s="5">
         <v>39753</v>
       </c>
@@ -5447,7 +5455,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="5">
         <v>39783</v>
       </c>
@@ -5455,7 +5463,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="5">
         <v>39814</v>
       </c>
@@ -5463,7 +5471,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="5">
         <v>39845</v>
       </c>
@@ -5471,7 +5479,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="5">
         <v>39873</v>
       </c>
@@ -5479,7 +5487,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A615" s="5">
         <v>39904</v>
       </c>
@@ -5487,7 +5495,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="5">
         <v>39934</v>
       </c>
@@ -5495,7 +5503,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="5">
         <v>39965</v>
       </c>
@@ -5503,7 +5511,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="5">
         <v>39995</v>
       </c>
@@ -5511,7 +5519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="5">
         <v>40026</v>
       </c>
@@ -5519,7 +5527,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="5">
         <v>40057</v>
       </c>
@@ -5527,7 +5535,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A621" s="5">
         <v>40087</v>
       </c>
@@ -5535,7 +5543,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="5">
         <v>40118</v>
       </c>
@@ -5543,7 +5551,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="5">
         <v>40148</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A624" s="5">
         <v>40179</v>
       </c>
@@ -5559,7 +5567,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A625" s="5">
         <v>40210</v>
       </c>
@@ -5567,7 +5575,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A626" s="5">
         <v>40238</v>
       </c>
@@ -5575,7 +5583,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A627" s="5">
         <v>40269</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A628" s="5">
         <v>40299</v>
       </c>
@@ -5591,7 +5599,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A629" s="5">
         <v>40330</v>
       </c>
@@ -5599,7 +5607,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A630" s="5">
         <v>40360</v>
       </c>
@@ -5607,7 +5615,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A631" s="5">
         <v>40391</v>
       </c>
@@ -5615,7 +5623,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A632" s="5">
         <v>40422</v>
       </c>
@@ -5623,7 +5631,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A633" s="5">
         <v>40452</v>
       </c>
@@ -5631,7 +5639,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A634" s="5">
         <v>40483</v>
       </c>
@@ -5639,7 +5647,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A635" s="5">
         <v>40513</v>
       </c>
@@ -5647,7 +5655,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A636" s="5">
         <v>40544</v>
       </c>
@@ -5655,7 +5663,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A637" s="5">
         <v>40575</v>
       </c>
@@ -5663,7 +5671,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A638" s="5">
         <v>40603</v>
       </c>
@@ -5671,7 +5679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A639" s="5">
         <v>40634</v>
       </c>
@@ -5679,7 +5687,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A640" s="5">
         <v>40664</v>
       </c>
@@ -5687,7 +5695,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A641" s="5">
         <v>40695</v>
       </c>
@@ -5695,7 +5703,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A642" s="5">
         <v>40725</v>
       </c>
@@ -5703,7 +5711,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A643" s="5">
         <v>40756</v>
       </c>
@@ -5711,7 +5719,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A644" s="5">
         <v>40787</v>
       </c>
@@ -5719,7 +5727,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A645" s="5">
         <v>40817</v>
       </c>
@@ -5727,7 +5735,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A646" s="5">
         <v>40848</v>
       </c>
@@ -5735,7 +5743,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A647" s="5">
         <v>40878</v>
       </c>
@@ -5743,7 +5751,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A648" s="5">
         <v>40909</v>
       </c>
@@ -5751,7 +5759,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A649" s="5">
         <v>40940</v>
       </c>
@@ -5759,7 +5767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A650" s="5">
         <v>40969</v>
       </c>
@@ -5767,7 +5775,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A651" s="5">
         <v>41000</v>
       </c>
@@ -5775,7 +5783,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A652" s="5">
         <v>41030</v>
       </c>
@@ -5783,7 +5791,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A653" s="5">
         <v>41061</v>
       </c>
@@ -5791,7 +5799,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A654" s="5">
         <v>41091</v>
       </c>
@@ -5799,7 +5807,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A655" s="5">
         <v>41122</v>
       </c>
@@ -5807,7 +5815,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A656" s="5">
         <v>41153</v>
       </c>
@@ -5815,7 +5823,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A657" s="5">
         <v>41183</v>
       </c>
@@ -5823,7 +5831,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A658" s="5">
         <v>41214</v>
       </c>
@@ -5831,7 +5839,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A659" s="5">
         <v>41244</v>
       </c>
@@ -5839,7 +5847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A660" s="5">
         <v>41275</v>
       </c>
@@ -5847,7 +5855,7 @@
         <v>6.3</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A661" s="5">
         <v>41306</v>
       </c>
@@ -5855,7 +5863,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A662" s="5">
         <v>41334</v>
       </c>
@@ -5863,7 +5871,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A663" s="5">
         <v>41365</v>
       </c>
@@ -5871,7 +5879,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A664" s="5">
         <v>41395</v>
       </c>
@@ -5879,7 +5887,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A665" s="5">
         <v>41426</v>
       </c>
@@ -5887,7 +5895,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A666" s="5">
         <v>41456</v>
       </c>
@@ -5895,7 +5903,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A667" s="5">
         <v>41487</v>
       </c>
@@ -5903,7 +5911,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A668" s="5">
         <v>41518</v>
       </c>
@@ -5911,7 +5919,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A669" s="5">
         <v>41548</v>
       </c>
@@ -5919,7 +5927,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A670" s="5">
         <v>41579</v>
       </c>
@@ -5927,7 +5935,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A671" s="5">
         <v>41609</v>
       </c>
@@ -5935,7 +5943,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A672" s="5">
         <v>41640</v>
       </c>
@@ -5943,7 +5951,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A673" s="5">
         <v>41671</v>
       </c>
@@ -5951,7 +5959,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A674" s="5">
         <v>41699</v>
       </c>
@@ -5959,7 +5967,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A675" s="5">
         <v>41730</v>
       </c>
@@ -5967,7 +5975,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A676" s="5">
         <v>41760</v>
       </c>
@@ -5975,7 +5983,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A677" s="5">
         <v>41791</v>
       </c>
@@ -5983,7 +5991,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A678" s="5">
         <v>41821</v>
       </c>
@@ -5991,7 +5999,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A679" s="5">
         <v>41852</v>
       </c>
@@ -5999,7 +6007,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A680" s="5">
         <v>41883</v>
       </c>
@@ -6007,7 +6015,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A681" s="5">
         <v>41913</v>
       </c>
@@ -6015,7 +6023,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A682" s="5">
         <v>41944</v>
       </c>
@@ -6023,7 +6031,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A683" s="5">
         <v>41974</v>
       </c>
@@ -6031,7 +6039,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A684" s="5">
         <v>42005</v>
       </c>
@@ -6039,7 +6047,7 @@
         <v>8.1</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A685" s="5">
         <v>42036</v>
       </c>
@@ -6047,7 +6055,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A686" s="5">
         <v>42064</v>
       </c>
@@ -6055,7 +6063,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A687" s="5">
         <v>42095</v>
       </c>
@@ -6063,7 +6071,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A688" s="5">
         <v>42125</v>
       </c>
@@ -6071,7 +6079,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A689" s="5">
         <v>42156</v>
       </c>
@@ -6079,7 +6087,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A690" s="5">
         <v>42186</v>
       </c>
@@ -6087,7 +6095,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A691" s="5">
         <v>42217</v>
       </c>
@@ -6095,7 +6103,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A692" s="5">
         <v>42248</v>
       </c>
@@ -6103,7 +6111,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A693" s="5">
         <v>42278</v>
       </c>
@@ -6111,7 +6119,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A694" s="5">
         <v>42309</v>
       </c>
@@ -6119,7 +6127,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A695" s="5">
         <v>42339</v>
       </c>
@@ -6127,7 +6135,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A696" s="5">
         <v>42370</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A697" s="5">
         <v>42401</v>
       </c>
@@ -6143,7 +6151,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A698" s="5">
         <v>42430</v>
       </c>
@@ -6151,7 +6159,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A699" s="5">
         <v>42461</v>
       </c>
@@ -6159,7 +6167,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A700" s="5">
         <v>42491</v>
       </c>
@@ -6167,7 +6175,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A701" s="5">
         <v>42522</v>
       </c>
@@ -6175,7 +6183,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A702" s="5">
         <v>42552</v>
       </c>
@@ -6183,7 +6191,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A703" s="5">
         <v>42583</v>
       </c>
@@ -6191,7 +6199,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A704" s="5">
         <v>42614</v>
       </c>
@@ -6199,7 +6207,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A705" s="5">
         <v>42644</v>
       </c>
@@ -6207,7 +6215,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A706" s="5">
         <v>42675</v>
       </c>
@@ -6215,7 +6223,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A707" s="5">
         <v>42705</v>
       </c>
@@ -6223,7 +6231,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A708" s="5">
         <v>42736</v>
       </c>
@@ -6231,7 +6239,7 @@
         <v>6.7</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A709" s="5">
         <v>42767</v>
       </c>
@@ -6239,7 +6247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A710" s="5">
         <v>42795</v>
       </c>
@@ -6247,7 +6255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A711" s="5">
         <v>42826</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A712" s="5">
         <v>42856</v>
       </c>
@@ -6263,7 +6271,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A713" s="5">
         <v>42887</v>
       </c>
@@ -6271,7 +6279,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A714" s="5">
         <v>42917</v>
       </c>
@@ -6279,7 +6287,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A715" s="5">
         <v>42948</v>
       </c>
@@ -6287,7 +6295,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A716" s="5">
         <v>42979</v>
       </c>
@@ -6295,7 +6303,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A717" s="5">
         <v>43009</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A718" s="5">
         <v>43040</v>
       </c>
@@ -6311,7 +6319,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A719" s="5">
         <v>43070</v>
       </c>
@@ -6319,7 +6327,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A720" s="5">
         <v>43101</v>
       </c>
@@ -6327,7 +6335,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A721" s="5">
         <v>43132</v>
       </c>
@@ -6335,7 +6343,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A722" s="5">
         <v>43160</v>
       </c>
@@ -6343,7 +6351,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A723" s="5">
         <v>43191</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A724" s="5">
         <v>43221</v>
       </c>
@@ -6359,7 +6367,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A725" s="5">
         <v>43252</v>
       </c>
@@ -6367,7 +6375,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A726" s="5">
         <v>43282</v>
       </c>
@@ -6375,7 +6383,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A727" s="5">
         <v>43313</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A728" s="5">
         <v>43344</v>
       </c>
@@ -6391,7 +6399,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A729" s="5">
         <v>43374</v>
       </c>
@@ -6399,7 +6407,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A730" s="5">
         <v>43405</v>
       </c>
@@ -6407,7 +6415,7 @@
         <v>7.4</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A731" s="5">
         <v>43435</v>
       </c>
@@ -6415,7 +6423,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A732" s="5">
         <v>43466</v>
       </c>
@@ -6423,7 +6431,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A733" s="5">
         <v>43497</v>
       </c>
@@ -6431,7 +6439,7 @@
         <v>8.6</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A734" s="5">
         <v>43525</v>
       </c>
@@ -6439,7 +6447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A735" s="5">
         <v>43556</v>
       </c>
@@ -6447,7 +6455,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A736" s="5">
         <v>43586</v>
       </c>
@@ -6455,7 +6463,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A737" s="5">
         <v>43617</v>
       </c>
@@ -6463,7 +6471,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A738" s="5">
         <v>43647</v>
       </c>
@@ -6471,7 +6479,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A739" s="5">
         <v>43678</v>
       </c>
@@ -6479,7 +6487,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A740" s="5">
         <v>43709</v>
       </c>
@@ -6487,7 +6495,7 @@
         <v>7.3</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A741" s="5">
         <v>43739</v>
       </c>
@@ -6495,7 +6503,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A742" s="5">
         <v>43770</v>
       </c>
@@ -6503,7 +6511,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A743" s="5">
         <v>43800</v>
       </c>
@@ -6511,7 +6519,7 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A744" s="5">
         <v>43831</v>
       </c>
@@ -6519,7 +6527,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A745" s="5">
         <v>43862</v>
       </c>
@@ -6527,7 +6535,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A746" s="5">
         <v>43891</v>
       </c>
@@ -6535,7 +6543,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A747" s="5">
         <v>43922</v>
       </c>
@@ -6543,7 +6551,7 @@
         <v>33.6</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A748" s="5">
         <v>43952</v>
       </c>
@@ -6551,7 +6559,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A749" s="5">
         <v>43983</v>
       </c>
@@ -6559,7 +6567,7 @@
         <v>18.7</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A750" s="5">
         <v>44013</v>
       </c>
@@ -6567,7 +6575,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A751" s="5">
         <v>44044</v>
       </c>
@@ -6587,25 +6595,27 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="7">
-        <f>AVERAGE(Data!B504:B743)/100</f>
-        <v>6.0595833333333321E-2</v>
+        <f>AVERAGE(Data!B648:B743)/100</f>
+        <v>7.4447916666666669E-2</v>
       </c>
     </row>
   </sheetData>
